--- a/日本版コアインボイス/日本版コアインボイス_2021-02-12.xlsx
+++ b/日本版コアインボイス/日本版コアインボイス_2021-02-12.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Users\pontsoleil\Desktop\EIPA\日本版コアインボイス\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\pontsoleil\Documents\GitHub\EIPA\日本版コアインボイス\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07661874-57BC-4ABA-B5F8-25997BADC9DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9934D29D-2E13-4C29-BF60-CB2B470242D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2175" yWindow="0" windowWidth="25215" windowHeight="15510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="0" windowWidth="25215" windowHeight="15510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コアインボイス" sheetId="1" r:id="rId1"/>
@@ -302,7 +302,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8736" uniqueCount="2636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8740" uniqueCount="2641">
   <si>
     <t>ID</t>
   </si>
@@ -10583,6 +10583,30 @@
     <rPh sb="85" eb="86">
       <t>ヨウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0..1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TAX point date</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>資産譲渡日
+TAX point date</t>
+    <rPh sb="0" eb="5">
+      <t>シサンジョウトビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>課税資産の譲渡等を行った年月日</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -11058,7 +11082,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="98">
+  <borders count="100">
     <border>
       <left/>
       <right/>
@@ -12295,6 +12319,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -12305,7 +12355,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="771">
+  <cellXfs count="775">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -14322,6 +14372,282 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -14331,293 +14657,29 @@
     <xf numFmtId="0" fontId="8" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -14628,22 +14690,6 @@
     <cellStyle name="標準 3" xfId="3" xr:uid="{1B4308F9-09D2-2B4C-847E-7285E275BB78}"/>
   </cellStyles>
   <dxfs count="287">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDEEAF6"/>
-          <bgColor rgb="FFDEEAF6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC5E0B3"/>
-          <bgColor rgb="FFC5E0B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -14701,6 +14747,22 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDEEAF6"/>
+          <bgColor rgb="FFDEEAF6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC5E0B3"/>
+          <bgColor rgb="FFC5E0B3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -17212,11 +17274,11 @@
   <dimension ref="A1:AU611"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J259" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J20" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AA263" sqref="AA263"/>
+      <selection pane="bottomRight" activeCell="W25" sqref="W25:Z25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="13.5"/>
@@ -17321,12 +17383,12 @@
       <c r="V1" s="583" t="s">
         <v>922</v>
       </c>
-      <c r="W1" s="746" t="s">
+      <c r="W1" s="720" t="s">
         <v>2587</v>
       </c>
-      <c r="X1" s="747"/>
-      <c r="Y1" s="747"/>
-      <c r="Z1" s="748"/>
+      <c r="X1" s="721"/>
+      <c r="Y1" s="721"/>
+      <c r="Z1" s="722"/>
       <c r="AA1" s="584" t="s">
         <v>2</v>
       </c>
@@ -17348,12 +17410,12 @@
       <c r="AG1" s="292" t="s">
         <v>922</v>
       </c>
-      <c r="AH1" s="743" t="s">
+      <c r="AH1" s="717" t="s">
         <v>2588</v>
       </c>
-      <c r="AI1" s="744"/>
-      <c r="AJ1" s="744"/>
-      <c r="AK1" s="745"/>
+      <c r="AI1" s="718"/>
+      <c r="AJ1" s="718"/>
+      <c r="AK1" s="719"/>
       <c r="AL1" s="253" t="s">
         <v>933</v>
       </c>
@@ -18125,12 +18187,12 @@
       <c r="V13" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="W13" s="704" t="s">
+      <c r="W13" s="702" t="s">
         <v>1699</v>
       </c>
-      <c r="X13" s="692"/>
-      <c r="Y13" s="692"/>
-      <c r="Z13" s="703"/>
+      <c r="X13" s="700"/>
+      <c r="Y13" s="700"/>
+      <c r="Z13" s="701"/>
       <c r="AA13" s="56" t="s">
         <v>41</v>
       </c>
@@ -18301,12 +18363,12 @@
       <c r="V15" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="W15" s="704" t="s">
+      <c r="W15" s="702" t="s">
         <v>1700</v>
       </c>
-      <c r="X15" s="692"/>
-      <c r="Y15" s="692"/>
-      <c r="Z15" s="703"/>
+      <c r="X15" s="700"/>
+      <c r="Y15" s="700"/>
+      <c r="Z15" s="701"/>
       <c r="AA15" s="56" t="s">
         <v>48</v>
       </c>
@@ -18457,12 +18519,12 @@
       <c r="V17" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="W17" s="704" t="s">
+      <c r="W17" s="702" t="s">
         <v>1701</v>
       </c>
-      <c r="X17" s="692"/>
-      <c r="Y17" s="692"/>
-      <c r="Z17" s="703"/>
+      <c r="X17" s="700"/>
+      <c r="Y17" s="700"/>
+      <c r="Z17" s="701"/>
       <c r="AA17" s="56" t="s">
         <v>1663</v>
       </c>
@@ -18542,12 +18604,12 @@
         <v>11</v>
       </c>
       <c r="V18" s="39"/>
-      <c r="W18" s="742" t="s">
+      <c r="W18" s="698" t="s">
         <v>1703</v>
       </c>
-      <c r="X18" s="695"/>
-      <c r="Y18" s="695"/>
-      <c r="Z18" s="697"/>
+      <c r="X18" s="692"/>
+      <c r="Y18" s="692"/>
+      <c r="Z18" s="699"/>
       <c r="AA18" s="43" t="s">
         <v>1665</v>
       </c>
@@ -18627,12 +18689,12 @@
         <v>11</v>
       </c>
       <c r="V19" s="39"/>
-      <c r="W19" s="742" t="s">
+      <c r="W19" s="698" t="s">
         <v>1702</v>
       </c>
-      <c r="X19" s="695"/>
-      <c r="Y19" s="695"/>
-      <c r="Z19" s="697"/>
+      <c r="X19" s="692"/>
+      <c r="Y19" s="692"/>
+      <c r="Z19" s="699"/>
       <c r="AA19" s="43" t="s">
         <v>1664</v>
       </c>
@@ -18791,12 +18853,12 @@
       <c r="V21" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="W21" s="749" t="s">
+      <c r="W21" s="714" t="s">
         <v>1704</v>
       </c>
-      <c r="X21" s="750"/>
-      <c r="Y21" s="750"/>
-      <c r="Z21" s="751"/>
+      <c r="X21" s="715"/>
+      <c r="Y21" s="715"/>
+      <c r="Z21" s="716"/>
       <c r="AA21" s="133" t="s">
         <v>59</v>
       </c>
@@ -18888,12 +18950,12 @@
       <c r="V22" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="W22" s="698" t="s">
+      <c r="W22" s="711" t="s">
         <v>1705</v>
       </c>
-      <c r="X22" s="699"/>
-      <c r="Y22" s="699"/>
-      <c r="Z22" s="700"/>
+      <c r="X22" s="712"/>
+      <c r="Y22" s="712"/>
+      <c r="Z22" s="713"/>
       <c r="AA22" s="258" t="s">
         <v>63</v>
       </c>
@@ -18967,16 +19029,16 @@
         <v>1248</v>
       </c>
       <c r="T23" s="634"/>
-      <c r="U23" s="726" t="s">
+      <c r="U23" s="744" t="s">
         <v>1657</v>
       </c>
-      <c r="V23" s="727"/>
-      <c r="W23" s="727"/>
-      <c r="X23" s="727"/>
-      <c r="Y23" s="727"/>
-      <c r="Z23" s="727"/>
-      <c r="AA23" s="727"/>
-      <c r="AB23" s="728"/>
+      <c r="V23" s="745"/>
+      <c r="W23" s="745"/>
+      <c r="X23" s="745"/>
+      <c r="Y23" s="745"/>
+      <c r="Z23" s="745"/>
+      <c r="AA23" s="745"/>
+      <c r="AB23" s="746"/>
       <c r="AC23" s="261" t="s">
         <v>15</v>
       </c>
@@ -19112,7 +19174,7 @@
         <v>1</v>
       </c>
       <c r="M25" s="504" t="s">
-        <v>1502</v>
+        <v>2638</v>
       </c>
       <c r="N25" s="649" t="s">
         <v>1503</v>
@@ -19135,14 +19197,22 @@
       <c r="T25" s="9" t="s">
         <v>1584</v>
       </c>
-      <c r="U25" s="66"/>
-      <c r="V25" s="121"/>
-      <c r="W25" s="247"/>
-      <c r="X25" s="247"/>
-      <c r="Y25" s="247"/>
-      <c r="Z25" s="247"/>
-      <c r="AA25" s="65"/>
-      <c r="AB25" s="596"/>
+      <c r="U25" s="772" t="s">
+        <v>2636</v>
+      </c>
+      <c r="V25" s="15" t="s">
+        <v>2637</v>
+      </c>
+      <c r="W25" s="773" t="s">
+        <v>2639</v>
+      </c>
+      <c r="X25" s="678"/>
+      <c r="Y25" s="678"/>
+      <c r="Z25" s="774"/>
+      <c r="AA25" s="5" t="s">
+        <v>2640</v>
+      </c>
+      <c r="AB25" s="771"/>
       <c r="AC25" s="262"/>
       <c r="AD25" s="262"/>
       <c r="AE25" s="262"/>
@@ -19299,12 +19369,12 @@
       <c r="V27" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="W27" s="698" t="s">
+      <c r="W27" s="711" t="s">
         <v>1706</v>
       </c>
-      <c r="X27" s="699"/>
-      <c r="Y27" s="699"/>
-      <c r="Z27" s="700"/>
+      <c r="X27" s="712"/>
+      <c r="Y27" s="712"/>
+      <c r="Z27" s="713"/>
       <c r="AA27" s="56" t="s">
         <v>72</v>
       </c>
@@ -19396,12 +19466,12 @@
       <c r="V28" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="W28" s="698" t="s">
+      <c r="W28" s="711" t="s">
         <v>1707</v>
       </c>
-      <c r="X28" s="699"/>
-      <c r="Y28" s="699"/>
-      <c r="Z28" s="700"/>
+      <c r="X28" s="712"/>
+      <c r="Y28" s="712"/>
+      <c r="Z28" s="713"/>
       <c r="AA28" s="56" t="s">
         <v>78</v>
       </c>
@@ -19564,12 +19634,12 @@
       <c r="V30" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="W30" s="698" t="s">
+      <c r="W30" s="711" t="s">
         <v>1708</v>
       </c>
-      <c r="X30" s="699"/>
-      <c r="Y30" s="699"/>
-      <c r="Z30" s="700"/>
+      <c r="X30" s="712"/>
+      <c r="Y30" s="712"/>
+      <c r="Z30" s="713"/>
       <c r="AA30" s="56" t="s">
         <v>84</v>
       </c>
@@ -19803,12 +19873,12 @@
       <c r="V33" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="W33" s="698" t="s">
+      <c r="W33" s="711" t="s">
         <v>1709</v>
       </c>
-      <c r="X33" s="699"/>
-      <c r="Y33" s="699"/>
-      <c r="Z33" s="700"/>
+      <c r="X33" s="712"/>
+      <c r="Y33" s="712"/>
+      <c r="Z33" s="713"/>
       <c r="AA33" s="56" t="s">
         <v>1607</v>
       </c>
@@ -19900,12 +19970,12 @@
       <c r="V34" s="53" t="s">
         <v>901</v>
       </c>
-      <c r="W34" s="698" t="s">
+      <c r="W34" s="711" t="s">
         <v>1710</v>
       </c>
-      <c r="X34" s="699"/>
-      <c r="Y34" s="699"/>
-      <c r="Z34" s="700"/>
+      <c r="X34" s="712"/>
+      <c r="Y34" s="712"/>
+      <c r="Z34" s="713"/>
       <c r="AA34" s="56" t="s">
         <v>1608</v>
       </c>
@@ -19999,12 +20069,12 @@
       <c r="V35" s="53" t="s">
         <v>901</v>
       </c>
-      <c r="W35" s="698" t="s">
+      <c r="W35" s="711" t="s">
         <v>1711</v>
       </c>
-      <c r="X35" s="699"/>
-      <c r="Y35" s="699"/>
-      <c r="Z35" s="700"/>
+      <c r="X35" s="712"/>
+      <c r="Y35" s="712"/>
+      <c r="Z35" s="713"/>
       <c r="AA35" s="56" t="s">
         <v>1609</v>
       </c>
@@ -20096,12 +20166,12 @@
       <c r="V36" s="94" t="s">
         <v>901</v>
       </c>
-      <c r="W36" s="698" t="s">
+      <c r="W36" s="711" t="s">
         <v>1712</v>
       </c>
-      <c r="X36" s="699"/>
-      <c r="Y36" s="699"/>
-      <c r="Z36" s="700"/>
+      <c r="X36" s="712"/>
+      <c r="Y36" s="712"/>
+      <c r="Z36" s="713"/>
       <c r="AA36" s="37" t="s">
         <v>1641</v>
       </c>
@@ -20185,12 +20255,12 @@
       <c r="V37" s="24" t="s">
         <v>2135</v>
       </c>
-      <c r="W37" s="698" t="s">
+      <c r="W37" s="711" t="s">
         <v>1713</v>
       </c>
-      <c r="X37" s="699"/>
-      <c r="Y37" s="699"/>
-      <c r="Z37" s="700"/>
+      <c r="X37" s="712"/>
+      <c r="Y37" s="712"/>
+      <c r="Z37" s="713"/>
       <c r="AA37" s="56" t="s">
         <v>1656</v>
       </c>
@@ -20286,12 +20356,12 @@
       <c r="V38" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="W38" s="698" t="s">
+      <c r="W38" s="711" t="s">
         <v>1714</v>
       </c>
-      <c r="X38" s="699"/>
-      <c r="Y38" s="699"/>
-      <c r="Z38" s="700"/>
+      <c r="X38" s="712"/>
+      <c r="Y38" s="712"/>
+      <c r="Z38" s="713"/>
       <c r="AA38" s="100" t="s">
         <v>108</v>
       </c>
@@ -20373,12 +20443,12 @@
       <c r="V39" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="W39" s="698" t="s">
+      <c r="W39" s="711" t="s">
         <v>1715</v>
       </c>
-      <c r="X39" s="699"/>
-      <c r="Y39" s="699"/>
-      <c r="Z39" s="700"/>
+      <c r="X39" s="712"/>
+      <c r="Y39" s="712"/>
+      <c r="Z39" s="713"/>
       <c r="AA39" s="100" t="s">
         <v>1597</v>
       </c>
@@ -20455,11 +20525,11 @@
         <v>901</v>
       </c>
       <c r="W40" s="89"/>
-      <c r="X40" s="675" t="s">
+      <c r="X40" s="676" t="s">
         <v>1717</v>
       </c>
-      <c r="Y40" s="688"/>
-      <c r="Z40" s="689"/>
+      <c r="Y40" s="696"/>
+      <c r="Z40" s="697"/>
       <c r="AA40" s="37" t="s">
         <v>1621</v>
       </c>
@@ -20535,18 +20605,18 @@
       <c r="T41" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="U41" s="769" t="s">
+      <c r="U41" s="672" t="s">
         <v>11</v>
       </c>
       <c r="V41" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="W41" s="698" t="s">
+      <c r="W41" s="711" t="s">
         <v>1719</v>
       </c>
-      <c r="X41" s="699"/>
-      <c r="Y41" s="699"/>
-      <c r="Z41" s="700"/>
+      <c r="X41" s="712"/>
+      <c r="Y41" s="712"/>
+      <c r="Z41" s="713"/>
       <c r="AA41" s="100" t="s">
         <v>114</v>
       </c>
@@ -20614,12 +20684,12 @@
       <c r="V42" s="24" t="s">
         <v>2135</v>
       </c>
-      <c r="W42" s="767" t="s">
+      <c r="W42" s="674" t="s">
         <v>2385</v>
       </c>
-      <c r="X42" s="767"/>
-      <c r="Y42" s="767"/>
-      <c r="Z42" s="768"/>
+      <c r="X42" s="674"/>
+      <c r="Y42" s="674"/>
+      <c r="Z42" s="675"/>
       <c r="AA42" s="37"/>
       <c r="AB42" s="589"/>
       <c r="AC42" s="163"/>
@@ -20699,18 +20769,18 @@
       <c r="T43" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="U43" s="770" t="s">
+      <c r="U43" s="673" t="s">
         <v>2632</v>
       </c>
       <c r="V43" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="W43" s="698" t="s">
+      <c r="W43" s="711" t="s">
         <v>1721</v>
       </c>
-      <c r="X43" s="699"/>
-      <c r="Y43" s="699"/>
-      <c r="Z43" s="700"/>
+      <c r="X43" s="712"/>
+      <c r="Y43" s="712"/>
+      <c r="Z43" s="713"/>
       <c r="AA43" s="102" t="s">
         <v>2633</v>
       </c>
@@ -21204,12 +21274,12 @@
       <c r="V50" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="W50" s="698" t="s">
+      <c r="W50" s="711" t="s">
         <v>1723</v>
       </c>
-      <c r="X50" s="699"/>
-      <c r="Y50" s="699"/>
-      <c r="Z50" s="700"/>
+      <c r="X50" s="712"/>
+      <c r="Y50" s="712"/>
+      <c r="Z50" s="713"/>
       <c r="AA50" s="56" t="s">
         <v>124</v>
       </c>
@@ -21304,11 +21374,11 @@
       <c r="W51" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="X51" s="701" t="s">
+      <c r="X51" s="759" t="s">
         <v>1725</v>
       </c>
-      <c r="Y51" s="701"/>
-      <c r="Z51" s="702"/>
+      <c r="Y51" s="759"/>
+      <c r="Z51" s="760"/>
       <c r="AA51" s="56" t="s">
         <v>129</v>
       </c>
@@ -21405,11 +21475,11 @@
       <c r="W52" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="X52" s="701" t="s">
+      <c r="X52" s="759" t="s">
         <v>1726</v>
       </c>
-      <c r="Y52" s="701"/>
-      <c r="Z52" s="702"/>
+      <c r="Y52" s="759"/>
+      <c r="Z52" s="760"/>
       <c r="AA52" s="56" t="s">
         <v>134</v>
       </c>
@@ -21580,12 +21650,12 @@
       <c r="V54" s="598" t="s">
         <v>40</v>
       </c>
-      <c r="W54" s="698" t="s">
+      <c r="W54" s="711" t="s">
         <v>1728</v>
       </c>
-      <c r="X54" s="699"/>
-      <c r="Y54" s="699"/>
-      <c r="Z54" s="700"/>
+      <c r="X54" s="712"/>
+      <c r="Y54" s="712"/>
+      <c r="Z54" s="713"/>
       <c r="AA54" s="56" t="s">
         <v>141</v>
       </c>
@@ -21678,11 +21748,11 @@
         <v>40</v>
       </c>
       <c r="W55" s="58"/>
-      <c r="X55" s="701" t="s">
+      <c r="X55" s="759" t="s">
         <v>1730</v>
       </c>
-      <c r="Y55" s="701"/>
-      <c r="Z55" s="702"/>
+      <c r="Y55" s="759"/>
+      <c r="Z55" s="760"/>
       <c r="AA55" s="56" t="s">
         <v>145</v>
       </c>
@@ -21775,11 +21845,11 @@
         <v>40</v>
       </c>
       <c r="W56" s="58"/>
-      <c r="X56" s="701" t="s">
+      <c r="X56" s="759" t="s">
         <v>1731</v>
       </c>
-      <c r="Y56" s="701"/>
-      <c r="Z56" s="702"/>
+      <c r="Y56" s="759"/>
+      <c r="Z56" s="760"/>
       <c r="AA56" s="56" t="s">
         <v>1856</v>
       </c>
@@ -21869,12 +21939,12 @@
       <c r="V57" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="W57" s="704" t="s">
+      <c r="W57" s="702" t="s">
         <v>1733</v>
       </c>
-      <c r="X57" s="692"/>
-      <c r="Y57" s="692"/>
-      <c r="Z57" s="703"/>
+      <c r="X57" s="700"/>
+      <c r="Y57" s="700"/>
+      <c r="Z57" s="701"/>
       <c r="AA57" s="37" t="s">
         <v>153</v>
       </c>
@@ -21957,11 +22027,11 @@
         <v>40</v>
       </c>
       <c r="W58" s="58"/>
-      <c r="X58" s="692" t="s">
+      <c r="X58" s="700" t="s">
         <v>1735</v>
       </c>
-      <c r="Y58" s="692"/>
-      <c r="Z58" s="703"/>
+      <c r="Y58" s="700"/>
+      <c r="Z58" s="701"/>
       <c r="AA58" s="37" t="s">
         <v>158</v>
       </c>
@@ -22044,11 +22114,11 @@
         <v>40</v>
       </c>
       <c r="W59" s="58"/>
-      <c r="X59" s="692" t="s">
+      <c r="X59" s="700" t="s">
         <v>1737</v>
       </c>
-      <c r="Y59" s="692"/>
-      <c r="Z59" s="703"/>
+      <c r="Y59" s="700"/>
+      <c r="Z59" s="701"/>
       <c r="AA59" s="37" t="s">
         <v>162</v>
       </c>
@@ -22128,12 +22198,12 @@
       <c r="V60" s="601" t="s">
         <v>40</v>
       </c>
-      <c r="W60" s="704" t="s">
+      <c r="W60" s="702" t="s">
         <v>1739</v>
       </c>
-      <c r="X60" s="692"/>
-      <c r="Y60" s="692"/>
-      <c r="Z60" s="703"/>
+      <c r="X60" s="700"/>
+      <c r="Y60" s="700"/>
+      <c r="Z60" s="701"/>
       <c r="AA60" s="56" t="s">
         <v>166</v>
       </c>
@@ -22226,11 +22296,11 @@
       <c r="W61" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="X61" s="692" t="s">
+      <c r="X61" s="700" t="s">
         <v>1741</v>
       </c>
-      <c r="Y61" s="692"/>
-      <c r="Z61" s="703"/>
+      <c r="Y61" s="700"/>
+      <c r="Z61" s="701"/>
       <c r="AA61" s="56" t="s">
         <v>170</v>
       </c>
@@ -22327,11 +22397,11 @@
         <v>12</v>
       </c>
       <c r="W62" s="89"/>
-      <c r="X62" s="675" t="s">
+      <c r="X62" s="676" t="s">
         <v>1742</v>
       </c>
-      <c r="Y62" s="675"/>
-      <c r="Z62" s="676"/>
+      <c r="Y62" s="676"/>
+      <c r="Z62" s="677"/>
       <c r="AA62" s="86" t="s">
         <v>10</v>
       </c>
@@ -22418,11 +22488,11 @@
       <c r="W63" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="X63" s="692" t="s">
+      <c r="X63" s="700" t="s">
         <v>1744</v>
       </c>
-      <c r="Y63" s="692"/>
-      <c r="Z63" s="703"/>
+      <c r="Y63" s="700"/>
+      <c r="Z63" s="701"/>
       <c r="AA63" s="56" t="s">
         <v>175</v>
       </c>
@@ -22510,10 +22580,10 @@
       </c>
       <c r="W64" s="89"/>
       <c r="X64" s="497"/>
-      <c r="Y64" s="675" t="s">
+      <c r="Y64" s="676" t="s">
         <v>1746</v>
       </c>
-      <c r="Z64" s="676"/>
+      <c r="Z64" s="677"/>
       <c r="AA64" s="37" t="s">
         <v>1631</v>
       </c>
@@ -22598,11 +22668,11 @@
       <c r="W65" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="X65" s="692" t="s">
+      <c r="X65" s="700" t="s">
         <v>1749</v>
       </c>
-      <c r="Y65" s="692"/>
-      <c r="Z65" s="703"/>
+      <c r="Y65" s="700"/>
+      <c r="Z65" s="701"/>
       <c r="AA65" s="56" t="s">
         <v>979</v>
       </c>
@@ -22690,10 +22760,10 @@
       </c>
       <c r="W66" s="89"/>
       <c r="X66" s="497"/>
-      <c r="Y66" s="675" t="s">
+      <c r="Y66" s="676" t="s">
         <v>1746</v>
       </c>
-      <c r="Z66" s="676"/>
+      <c r="Z66" s="677"/>
       <c r="AA66" s="37" t="s">
         <v>1633</v>
       </c>
@@ -22776,11 +22846,11 @@
         <v>12</v>
       </c>
       <c r="W67" s="119"/>
-      <c r="X67" s="752" t="s">
+      <c r="X67" s="709" t="s">
         <v>1751</v>
       </c>
-      <c r="Y67" s="752"/>
-      <c r="Z67" s="753"/>
+      <c r="Y67" s="709"/>
+      <c r="Z67" s="710"/>
       <c r="AA67" s="120" t="s">
         <v>10</v>
       </c>
@@ -22867,11 +22937,11 @@
       <c r="W68" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="X68" s="675" t="s">
+      <c r="X68" s="676" t="s">
         <v>1753</v>
       </c>
-      <c r="Y68" s="688"/>
-      <c r="Z68" s="689"/>
+      <c r="Y68" s="696"/>
+      <c r="Z68" s="697"/>
       <c r="AA68" s="56" t="s">
         <v>2623</v>
       </c>
@@ -22892,11 +22962,11 @@
       <c r="AH68" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="AI68" s="686" t="s">
+      <c r="AI68" s="756" t="s">
         <v>1604</v>
       </c>
-      <c r="AJ68" s="690"/>
-      <c r="AK68" s="691"/>
+      <c r="AJ68" s="757"/>
+      <c r="AK68" s="758"/>
       <c r="AL68" s="258" t="s">
         <v>184</v>
       </c>
@@ -22968,11 +23038,11 @@
         <v>12</v>
       </c>
       <c r="W69" s="119"/>
-      <c r="X69" s="752" t="s">
+      <c r="X69" s="709" t="s">
         <v>1755</v>
       </c>
-      <c r="Y69" s="752"/>
-      <c r="Z69" s="753"/>
+      <c r="Y69" s="709"/>
+      <c r="Z69" s="710"/>
       <c r="AA69" s="123" t="s">
         <v>10</v>
       </c>
@@ -23055,11 +23125,11 @@
         <v>12</v>
       </c>
       <c r="W70" s="89"/>
-      <c r="X70" s="675" t="s">
+      <c r="X70" s="676" t="s">
         <v>1757</v>
       </c>
-      <c r="Y70" s="688"/>
-      <c r="Z70" s="689"/>
+      <c r="Y70" s="696"/>
+      <c r="Z70" s="697"/>
       <c r="AA70" s="37" t="s">
         <v>861</v>
       </c>
@@ -23137,10 +23207,10 @@
       </c>
       <c r="W71" s="89"/>
       <c r="X71" s="497"/>
-      <c r="Y71" s="675" t="s">
+      <c r="Y71" s="676" t="s">
         <v>1746</v>
       </c>
-      <c r="Z71" s="676"/>
+      <c r="Z71" s="677"/>
       <c r="AA71" s="37" t="s">
         <v>1634</v>
       </c>
@@ -23221,11 +23291,11 @@
         <v>12</v>
       </c>
       <c r="W72" s="58"/>
-      <c r="X72" s="692" t="s">
+      <c r="X72" s="700" t="s">
         <v>1759</v>
       </c>
-      <c r="Y72" s="692"/>
-      <c r="Z72" s="703"/>
+      <c r="Y72" s="700"/>
+      <c r="Z72" s="701"/>
       <c r="AA72" s="37" t="s">
         <v>838</v>
       </c>
@@ -23321,10 +23391,10 @@
       </c>
       <c r="W73" s="89"/>
       <c r="X73" s="497"/>
-      <c r="Y73" s="675" t="s">
+      <c r="Y73" s="676" t="s">
         <v>1761</v>
       </c>
-      <c r="Z73" s="676"/>
+      <c r="Z73" s="677"/>
       <c r="AA73" s="497" t="s">
         <v>839</v>
       </c>
@@ -23422,10 +23492,10 @@
       </c>
       <c r="W74" s="89"/>
       <c r="X74" s="497"/>
-      <c r="Y74" s="675" t="s">
+      <c r="Y74" s="676" t="s">
         <v>1763</v>
       </c>
-      <c r="Z74" s="676"/>
+      <c r="Z74" s="677"/>
       <c r="AA74" s="497" t="s">
         <v>840</v>
       </c>
@@ -23509,10 +23579,10 @@
       </c>
       <c r="W75" s="89"/>
       <c r="X75" s="497"/>
-      <c r="Y75" s="675" t="s">
+      <c r="Y75" s="676" t="s">
         <v>1765</v>
       </c>
-      <c r="Z75" s="676"/>
+      <c r="Z75" s="677"/>
       <c r="AA75" s="497" t="s">
         <v>841</v>
       </c>
@@ -23596,10 +23666,10 @@
       </c>
       <c r="W76" s="89"/>
       <c r="X76" s="497"/>
-      <c r="Y76" s="675" t="s">
+      <c r="Y76" s="676" t="s">
         <v>1767</v>
       </c>
-      <c r="Z76" s="676"/>
+      <c r="Z76" s="677"/>
       <c r="AA76" s="497" t="s">
         <v>842</v>
       </c>
@@ -23683,10 +23753,10 @@
       </c>
       <c r="W77" s="89"/>
       <c r="X77" s="497"/>
-      <c r="Y77" s="675" t="s">
+      <c r="Y77" s="676" t="s">
         <v>1769</v>
       </c>
-      <c r="Z77" s="676"/>
+      <c r="Z77" s="677"/>
       <c r="AA77" s="497" t="s">
         <v>843</v>
       </c>
@@ -23784,10 +23854,10 @@
       </c>
       <c r="W78" s="89"/>
       <c r="X78" s="497"/>
-      <c r="Y78" s="675" t="s">
+      <c r="Y78" s="676" t="s">
         <v>1771</v>
       </c>
-      <c r="Z78" s="676"/>
+      <c r="Z78" s="677"/>
       <c r="AA78" s="497" t="s">
         <v>844</v>
       </c>
@@ -23871,10 +23941,10 @@
       </c>
       <c r="W79" s="89"/>
       <c r="X79" s="497"/>
-      <c r="Y79" s="675" t="s">
+      <c r="Y79" s="676" t="s">
         <v>1773</v>
       </c>
-      <c r="Z79" s="676"/>
+      <c r="Z79" s="677"/>
       <c r="AA79" s="37" t="s">
         <v>845</v>
       </c>
@@ -23957,11 +24027,11 @@
       <c r="W80" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="X80" s="692" t="s">
+      <c r="X80" s="700" t="s">
         <v>1775</v>
       </c>
-      <c r="Y80" s="692"/>
-      <c r="Z80" s="703"/>
+      <c r="Y80" s="700"/>
+      <c r="Z80" s="701"/>
       <c r="AA80" s="56" t="s">
         <v>215</v>
       </c>
@@ -24047,10 +24117,10 @@
       <c r="X81" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="Y81" s="695" t="s">
+      <c r="Y81" s="692" t="s">
         <v>1643</v>
       </c>
-      <c r="Z81" s="696"/>
+      <c r="Z81" s="694"/>
       <c r="AA81" s="43" t="s">
         <v>217</v>
       </c>
@@ -24140,10 +24210,10 @@
       <c r="X82" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="Y82" s="695" t="s">
+      <c r="Y82" s="692" t="s">
         <v>1644</v>
       </c>
-      <c r="Z82" s="696"/>
+      <c r="Z82" s="694"/>
       <c r="AA82" s="43" t="s">
         <v>224</v>
       </c>
@@ -24245,10 +24315,10 @@
       <c r="X83" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="Y83" s="675" t="s">
+      <c r="Y83" s="676" t="s">
         <v>1777</v>
       </c>
-      <c r="Z83" s="676"/>
+      <c r="Z83" s="677"/>
       <c r="AA83" s="56" t="s">
         <v>2583</v>
       </c>
@@ -24350,10 +24420,10 @@
       <c r="X84" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="Y84" s="675" t="s">
+      <c r="Y84" s="676" t="s">
         <v>1779</v>
       </c>
-      <c r="Z84" s="676"/>
+      <c r="Z84" s="677"/>
       <c r="AA84" s="56" t="s">
         <v>228</v>
       </c>
@@ -24451,10 +24521,10 @@
       </c>
       <c r="W85" s="58"/>
       <c r="X85" s="59"/>
-      <c r="Y85" s="675" t="s">
+      <c r="Y85" s="676" t="s">
         <v>1781</v>
       </c>
-      <c r="Z85" s="676"/>
+      <c r="Z85" s="677"/>
       <c r="AA85" s="56" t="s">
         <v>231</v>
       </c>
@@ -24550,12 +24620,12 @@
       <c r="V86" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="W86" s="704" t="s">
+      <c r="W86" s="702" t="s">
         <v>1783</v>
       </c>
-      <c r="X86" s="692"/>
-      <c r="Y86" s="692"/>
-      <c r="Z86" s="703"/>
+      <c r="X86" s="700"/>
+      <c r="Y86" s="700"/>
+      <c r="Z86" s="701"/>
       <c r="AA86" s="56" t="s">
         <v>234</v>
       </c>
@@ -24650,11 +24720,11 @@
       <c r="W87" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="X87" s="675" t="s">
+      <c r="X87" s="676" t="s">
         <v>1785</v>
       </c>
-      <c r="Y87" s="675"/>
-      <c r="Z87" s="676"/>
+      <c r="Y87" s="676"/>
+      <c r="Z87" s="677"/>
       <c r="AA87" s="56" t="s">
         <v>238</v>
       </c>
@@ -24751,11 +24821,11 @@
         <v>12</v>
       </c>
       <c r="W88" s="89"/>
-      <c r="X88" s="675" t="s">
+      <c r="X88" s="676" t="s">
         <v>1787</v>
       </c>
-      <c r="Y88" s="675"/>
-      <c r="Z88" s="676"/>
+      <c r="Y88" s="676"/>
+      <c r="Z88" s="677"/>
       <c r="AA88" s="86" t="s">
         <v>10</v>
       </c>
@@ -24842,11 +24912,11 @@
       <c r="W89" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="X89" s="675" t="s">
+      <c r="X89" s="676" t="s">
         <v>1789</v>
       </c>
-      <c r="Y89" s="675"/>
-      <c r="Z89" s="676"/>
+      <c r="Y89" s="676"/>
+      <c r="Z89" s="677"/>
       <c r="AA89" s="56" t="s">
         <v>245</v>
       </c>
@@ -24934,10 +25004,10 @@
       </c>
       <c r="W90" s="89"/>
       <c r="X90" s="497"/>
-      <c r="Y90" s="675" t="s">
+      <c r="Y90" s="676" t="s">
         <v>1746</v>
       </c>
-      <c r="Z90" s="676"/>
+      <c r="Z90" s="677"/>
       <c r="AA90" s="37" t="s">
         <v>1633</v>
       </c>
@@ -25022,11 +25092,11 @@
       <c r="W91" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="X91" s="675" t="s">
+      <c r="X91" s="676" t="s">
         <v>1791</v>
       </c>
-      <c r="Y91" s="675"/>
-      <c r="Z91" s="676"/>
+      <c r="Y91" s="676"/>
+      <c r="Z91" s="677"/>
       <c r="AA91" s="56" t="s">
         <v>980</v>
       </c>
@@ -25114,10 +25184,10 @@
       </c>
       <c r="W92" s="369"/>
       <c r="X92" s="369"/>
-      <c r="Y92" s="675" t="s">
+      <c r="Y92" s="676" t="s">
         <v>1746</v>
       </c>
-      <c r="Z92" s="676"/>
+      <c r="Z92" s="677"/>
       <c r="AA92" s="37" t="s">
         <v>1633</v>
       </c>
@@ -25202,11 +25272,11 @@
       <c r="W93" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="X93" s="692" t="s">
+      <c r="X93" s="700" t="s">
         <v>1793</v>
       </c>
-      <c r="Y93" s="693"/>
-      <c r="Z93" s="694"/>
+      <c r="Y93" s="705"/>
+      <c r="Z93" s="706"/>
       <c r="AA93" s="56" t="s">
         <v>2621</v>
       </c>
@@ -25227,11 +25297,11 @@
       <c r="AH93" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="AI93" s="692" t="s">
+      <c r="AI93" s="700" t="s">
         <v>1603</v>
       </c>
-      <c r="AJ93" s="693"/>
-      <c r="AK93" s="694"/>
+      <c r="AJ93" s="705"/>
+      <c r="AK93" s="706"/>
       <c r="AL93" s="258" t="s">
         <v>256</v>
       </c>
@@ -25303,11 +25373,11 @@
         <v>12</v>
       </c>
       <c r="W94" s="89"/>
-      <c r="X94" s="675" t="s">
+      <c r="X94" s="676" t="s">
         <v>1795</v>
       </c>
-      <c r="Y94" s="688"/>
-      <c r="Z94" s="689"/>
+      <c r="Y94" s="696"/>
+      <c r="Z94" s="697"/>
       <c r="AA94" s="100" t="s">
         <v>255</v>
       </c>
@@ -25385,10 +25455,10 @@
       </c>
       <c r="W95" s="369"/>
       <c r="X95" s="369"/>
-      <c r="Y95" s="675" t="s">
+      <c r="Y95" s="676" t="s">
         <v>1746</v>
       </c>
-      <c r="Z95" s="676"/>
+      <c r="Z95" s="677"/>
       <c r="AA95" s="37" t="s">
         <v>1634</v>
       </c>
@@ -25469,11 +25539,11 @@
         <v>12</v>
       </c>
       <c r="W96" s="58"/>
-      <c r="X96" s="692" t="s">
+      <c r="X96" s="700" t="s">
         <v>1797</v>
       </c>
-      <c r="Y96" s="693"/>
-      <c r="Z96" s="694"/>
+      <c r="Y96" s="705"/>
+      <c r="Z96" s="706"/>
       <c r="AA96" s="56" t="s">
         <v>261</v>
       </c>
@@ -25571,10 +25641,10 @@
       </c>
       <c r="W97" s="89"/>
       <c r="X97" s="497"/>
-      <c r="Y97" s="675" t="s">
+      <c r="Y97" s="676" t="s">
         <v>1799</v>
       </c>
-      <c r="Z97" s="676"/>
+      <c r="Z97" s="677"/>
       <c r="AA97" s="117" t="s">
         <v>832</v>
       </c>
@@ -25672,10 +25742,10 @@
       </c>
       <c r="W98" s="89"/>
       <c r="X98" s="497"/>
-      <c r="Y98" s="675" t="s">
+      <c r="Y98" s="676" t="s">
         <v>1800</v>
       </c>
-      <c r="Z98" s="676"/>
+      <c r="Z98" s="677"/>
       <c r="AA98" s="497" t="s">
         <v>833</v>
       </c>
@@ -25759,10 +25829,10 @@
       </c>
       <c r="W99" s="89"/>
       <c r="X99" s="497"/>
-      <c r="Y99" s="675" t="s">
+      <c r="Y99" s="676" t="s">
         <v>1801</v>
       </c>
-      <c r="Z99" s="676"/>
+      <c r="Z99" s="677"/>
       <c r="AA99" s="497" t="s">
         <v>834</v>
       </c>
@@ -25846,10 +25916,10 @@
       </c>
       <c r="W100" s="89"/>
       <c r="X100" s="497"/>
-      <c r="Y100" s="675" t="s">
+      <c r="Y100" s="676" t="s">
         <v>1803</v>
       </c>
-      <c r="Z100" s="676"/>
+      <c r="Z100" s="677"/>
       <c r="AA100" s="497" t="s">
         <v>835</v>
       </c>
@@ -25933,10 +26003,10 @@
       </c>
       <c r="W101" s="89"/>
       <c r="X101" s="497"/>
-      <c r="Y101" s="675" t="s">
+      <c r="Y101" s="676" t="s">
         <v>1805</v>
       </c>
-      <c r="Z101" s="676"/>
+      <c r="Z101" s="677"/>
       <c r="AA101" s="497" t="s">
         <v>836</v>
       </c>
@@ -26034,10 +26104,10 @@
       </c>
       <c r="W102" s="89"/>
       <c r="X102" s="497"/>
-      <c r="Y102" s="675" t="s">
+      <c r="Y102" s="676" t="s">
         <v>1807</v>
       </c>
-      <c r="Z102" s="676"/>
+      <c r="Z102" s="677"/>
       <c r="AA102" s="497" t="s">
         <v>276</v>
       </c>
@@ -26121,10 +26191,10 @@
       </c>
       <c r="W103" s="89"/>
       <c r="X103" s="497"/>
-      <c r="Y103" s="675" t="s">
+      <c r="Y103" s="676" t="s">
         <v>1809</v>
       </c>
-      <c r="Z103" s="676"/>
+      <c r="Z103" s="677"/>
       <c r="AA103" s="37" t="s">
         <v>837</v>
       </c>
@@ -26207,11 +26277,11 @@
       <c r="W104" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="X104" s="675" t="s">
+      <c r="X104" s="676" t="s">
         <v>1811</v>
       </c>
-      <c r="Y104" s="675"/>
-      <c r="Z104" s="676"/>
+      <c r="Y104" s="676"/>
+      <c r="Z104" s="677"/>
       <c r="AA104" s="56" t="s">
         <v>215</v>
       </c>
@@ -26297,10 +26367,10 @@
       <c r="X105" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="Y105" s="695" t="s">
+      <c r="Y105" s="692" t="s">
         <v>1645</v>
       </c>
-      <c r="Z105" s="697"/>
+      <c r="Z105" s="699"/>
       <c r="AA105" s="43" t="s">
         <v>284</v>
       </c>
@@ -26390,10 +26460,10 @@
       <c r="X106" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="Y106" s="695" t="s">
+      <c r="Y106" s="692" t="s">
         <v>1646</v>
       </c>
-      <c r="Z106" s="697"/>
+      <c r="Z106" s="699"/>
       <c r="AA106" s="43" t="s">
         <v>286</v>
       </c>
@@ -26495,10 +26565,10 @@
       <c r="X107" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="Y107" s="675" t="s">
+      <c r="Y107" s="676" t="s">
         <v>1813</v>
       </c>
-      <c r="Z107" s="676"/>
+      <c r="Z107" s="677"/>
       <c r="AA107" s="56" t="s">
         <v>2582</v>
       </c>
@@ -26600,10 +26670,10 @@
       <c r="X108" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="Y108" s="675" t="s">
+      <c r="Y108" s="676" t="s">
         <v>1815</v>
       </c>
-      <c r="Z108" s="676"/>
+      <c r="Z108" s="677"/>
       <c r="AA108" s="56" t="s">
         <v>294</v>
       </c>
@@ -26701,10 +26771,10 @@
       </c>
       <c r="W109" s="58"/>
       <c r="X109" s="59"/>
-      <c r="Y109" s="675" t="s">
+      <c r="Y109" s="676" t="s">
         <v>1817</v>
       </c>
-      <c r="Z109" s="676"/>
+      <c r="Z109" s="677"/>
       <c r="AA109" s="56" t="s">
         <v>297</v>
       </c>
@@ -26800,12 +26870,12 @@
       <c r="V110" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="W110" s="704" t="s">
+      <c r="W110" s="702" t="s">
         <v>1819</v>
       </c>
-      <c r="X110" s="692"/>
-      <c r="Y110" s="692"/>
-      <c r="Z110" s="703"/>
+      <c r="X110" s="700"/>
+      <c r="Y110" s="700"/>
+      <c r="Z110" s="701"/>
       <c r="AA110" s="56" t="s">
         <v>968</v>
       </c>
@@ -26900,11 +26970,11 @@
       <c r="W111" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="X111" s="692" t="s">
+      <c r="X111" s="700" t="s">
         <v>1821</v>
       </c>
-      <c r="Y111" s="692"/>
-      <c r="Z111" s="703"/>
+      <c r="Y111" s="700"/>
+      <c r="Z111" s="701"/>
       <c r="AA111" s="56" t="s">
         <v>887</v>
       </c>
@@ -27001,11 +27071,11 @@
       <c r="W112" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="X112" s="692" t="s">
+      <c r="X112" s="700" t="s">
         <v>1823</v>
       </c>
-      <c r="Y112" s="692"/>
-      <c r="Z112" s="703"/>
+      <c r="Y112" s="700"/>
+      <c r="Z112" s="701"/>
       <c r="AA112" s="56" t="s">
         <v>309</v>
       </c>
@@ -27093,10 +27163,10 @@
       </c>
       <c r="W113" s="369"/>
       <c r="X113" s="369"/>
-      <c r="Y113" s="675" t="s">
+      <c r="Y113" s="676" t="s">
         <v>1746</v>
       </c>
-      <c r="Z113" s="676"/>
+      <c r="Z113" s="677"/>
       <c r="AA113" s="37" t="s">
         <v>1633</v>
       </c>
@@ -27181,11 +27251,11 @@
       <c r="W114" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="X114" s="692" t="s">
+      <c r="X114" s="700" t="s">
         <v>1825</v>
       </c>
-      <c r="Y114" s="692"/>
-      <c r="Z114" s="703"/>
+      <c r="Y114" s="700"/>
+      <c r="Z114" s="701"/>
       <c r="AA114" s="56" t="s">
         <v>969</v>
       </c>
@@ -27273,10 +27343,10 @@
       </c>
       <c r="W115" s="369"/>
       <c r="X115" s="369"/>
-      <c r="Y115" s="675" t="s">
+      <c r="Y115" s="676" t="s">
         <v>1746</v>
       </c>
-      <c r="Z115" s="676"/>
+      <c r="Z115" s="677"/>
       <c r="AA115" s="370" t="s">
         <v>1632</v>
       </c>
@@ -27341,11 +27411,11 @@
       <c r="W116" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="X116" s="695" t="s">
+      <c r="X116" s="692" t="s">
         <v>1826</v>
       </c>
-      <c r="Y116" s="695"/>
-      <c r="Z116" s="697"/>
+      <c r="Y116" s="692"/>
+      <c r="Z116" s="699"/>
       <c r="AA116" s="43" t="s">
         <v>301</v>
       </c>
@@ -27433,10 +27503,10 @@
       <c r="X117" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="Y117" s="695" t="s">
+      <c r="Y117" s="692" t="s">
         <v>1827</v>
       </c>
-      <c r="Z117" s="697"/>
+      <c r="Z117" s="699"/>
       <c r="AA117" s="43" t="s">
         <v>316</v>
       </c>
@@ -27526,10 +27596,10 @@
       <c r="X118" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="Y118" s="695" t="s">
+      <c r="Y118" s="692" t="s">
         <v>1828</v>
       </c>
-      <c r="Z118" s="697"/>
+      <c r="Z118" s="699"/>
       <c r="AA118" s="43" t="s">
         <v>320</v>
       </c>
@@ -27619,10 +27689,10 @@
       <c r="X119" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="Y119" s="695" t="s">
+      <c r="Y119" s="692" t="s">
         <v>1829</v>
       </c>
-      <c r="Z119" s="697"/>
+      <c r="Z119" s="699"/>
       <c r="AA119" s="43" t="s">
         <v>318</v>
       </c>
@@ -27712,10 +27782,10 @@
       <c r="X120" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="Y120" s="695" t="s">
+      <c r="Y120" s="692" t="s">
         <v>1830</v>
       </c>
-      <c r="Z120" s="697"/>
+      <c r="Z120" s="699"/>
       <c r="AA120" s="43" t="s">
         <v>322</v>
       </c>
@@ -27799,12 +27869,12 @@
         <v>11</v>
       </c>
       <c r="V121" s="39"/>
-      <c r="W121" s="742" t="s">
+      <c r="W121" s="698" t="s">
         <v>1831</v>
       </c>
-      <c r="X121" s="695"/>
-      <c r="Y121" s="695"/>
-      <c r="Z121" s="697"/>
+      <c r="X121" s="692"/>
+      <c r="Y121" s="692"/>
+      <c r="Z121" s="699"/>
       <c r="AA121" s="43" t="s">
         <v>1838</v>
       </c>
@@ -27885,11 +27955,11 @@
       <c r="W122" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="X122" s="695" t="s">
+      <c r="X122" s="692" t="s">
         <v>1832</v>
       </c>
-      <c r="Y122" s="695"/>
-      <c r="Z122" s="697"/>
+      <c r="Y122" s="692"/>
+      <c r="Z122" s="699"/>
       <c r="AA122" s="43" t="s">
         <v>1840</v>
       </c>
@@ -27974,11 +28044,11 @@
       <c r="W123" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="X123" s="695" t="s">
+      <c r="X123" s="692" t="s">
         <v>1836</v>
       </c>
-      <c r="Y123" s="695"/>
-      <c r="Z123" s="697"/>
+      <c r="Y123" s="692"/>
+      <c r="Z123" s="699"/>
       <c r="AA123" s="43" t="s">
         <v>1841</v>
       </c>
@@ -28063,11 +28133,11 @@
       <c r="W124" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="X124" s="695" t="s">
+      <c r="X124" s="692" t="s">
         <v>1837</v>
       </c>
-      <c r="Y124" s="695"/>
-      <c r="Z124" s="697"/>
+      <c r="Y124" s="692"/>
+      <c r="Z124" s="699"/>
       <c r="AA124" s="43" t="s">
         <v>1842</v>
       </c>
@@ -28152,11 +28222,11 @@
       <c r="W125" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="X125" s="695" t="s">
+      <c r="X125" s="692" t="s">
         <v>1839</v>
       </c>
-      <c r="Y125" s="695"/>
-      <c r="Z125" s="697"/>
+      <c r="Y125" s="692"/>
+      <c r="Z125" s="699"/>
       <c r="AA125" s="43" t="s">
         <v>1843</v>
       </c>
@@ -28242,10 +28312,10 @@
       <c r="X126" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="Y126" s="695" t="s">
+      <c r="Y126" s="692" t="s">
         <v>1850</v>
       </c>
-      <c r="Z126" s="697"/>
+      <c r="Z126" s="699"/>
       <c r="AA126" s="43" t="s">
         <v>1844</v>
       </c>
@@ -28335,10 +28405,10 @@
       <c r="X127" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="Y127" s="695" t="s">
+      <c r="Y127" s="692" t="s">
         <v>1851</v>
       </c>
-      <c r="Z127" s="697"/>
+      <c r="Z127" s="699"/>
       <c r="AA127" s="43" t="s">
         <v>1848</v>
       </c>
@@ -28428,10 +28498,10 @@
       <c r="X128" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="Y128" s="695" t="s">
+      <c r="Y128" s="692" t="s">
         <v>1852</v>
       </c>
-      <c r="Z128" s="697"/>
+      <c r="Z128" s="699"/>
       <c r="AA128" s="43" t="s">
         <v>1845</v>
       </c>
@@ -28521,10 +28591,10 @@
       <c r="X129" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="Y129" s="695" t="s">
+      <c r="Y129" s="692" t="s">
         <v>1853</v>
       </c>
-      <c r="Z129" s="697"/>
+      <c r="Z129" s="699"/>
       <c r="AA129" s="43" t="s">
         <v>1849</v>
       </c>
@@ -28618,12 +28688,12 @@
       <c r="V130" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="W130" s="704" t="s">
+      <c r="W130" s="702" t="s">
         <v>1855</v>
       </c>
-      <c r="X130" s="692"/>
-      <c r="Y130" s="692"/>
-      <c r="Z130" s="703"/>
+      <c r="X130" s="700"/>
+      <c r="Y130" s="700"/>
+      <c r="Z130" s="701"/>
       <c r="AA130" s="56" t="s">
         <v>341</v>
       </c>
@@ -28706,11 +28776,11 @@
       <c r="W131" s="642" t="s">
         <v>10</v>
       </c>
-      <c r="X131" s="756" t="s">
+      <c r="X131" s="703" t="s">
         <v>1858</v>
       </c>
-      <c r="Y131" s="756"/>
-      <c r="Z131" s="757"/>
+      <c r="Y131" s="703"/>
+      <c r="Z131" s="704"/>
       <c r="AA131" s="123" t="s">
         <v>343</v>
       </c>
@@ -28797,11 +28867,11 @@
       <c r="W132" s="642" t="s">
         <v>10</v>
       </c>
-      <c r="X132" s="756" t="s">
+      <c r="X132" s="703" t="s">
         <v>1859</v>
       </c>
-      <c r="Y132" s="756"/>
-      <c r="Z132" s="757"/>
+      <c r="Y132" s="703"/>
+      <c r="Z132" s="704"/>
       <c r="AA132" s="123" t="s">
         <v>970</v>
       </c>
@@ -28898,11 +28968,11 @@
       <c r="W133" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="X133" s="692" t="s">
+      <c r="X133" s="700" t="s">
         <v>1860</v>
       </c>
-      <c r="Y133" s="692"/>
-      <c r="Z133" s="703"/>
+      <c r="Y133" s="700"/>
+      <c r="Z133" s="701"/>
       <c r="AA133" s="56" t="s">
         <v>349</v>
       </c>
@@ -29001,11 +29071,11 @@
       <c r="W134" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="X134" s="692" t="s">
+      <c r="X134" s="700" t="s">
         <v>1861</v>
       </c>
-      <c r="Y134" s="692"/>
-      <c r="Z134" s="703"/>
+      <c r="Y134" s="700"/>
+      <c r="Z134" s="701"/>
       <c r="AA134" s="56" t="s">
         <v>2622</v>
       </c>
@@ -29026,11 +29096,11 @@
       <c r="AH134" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="AI134" s="692" t="s">
+      <c r="AI134" s="700" t="s">
         <v>1602</v>
       </c>
-      <c r="AJ134" s="693"/>
-      <c r="AK134" s="694"/>
+      <c r="AJ134" s="705"/>
+      <c r="AK134" s="706"/>
       <c r="AL134" s="258" t="s">
         <v>184</v>
       </c>
@@ -29094,11 +29164,11 @@
       <c r="W135" s="642" t="s">
         <v>10</v>
       </c>
-      <c r="X135" s="756" t="s">
+      <c r="X135" s="703" t="s">
         <v>1862</v>
       </c>
-      <c r="Y135" s="756"/>
-      <c r="Z135" s="757"/>
+      <c r="Y135" s="703"/>
+      <c r="Z135" s="704"/>
       <c r="AA135" s="123" t="s">
         <v>353</v>
       </c>
@@ -29186,10 +29256,10 @@
       <c r="X136" s="643" t="s">
         <v>10</v>
       </c>
-      <c r="Y136" s="756" t="s">
+      <c r="Y136" s="703" t="s">
         <v>1863</v>
       </c>
-      <c r="Z136" s="757"/>
+      <c r="Z136" s="704"/>
       <c r="AA136" s="123" t="s">
         <v>355</v>
       </c>
@@ -29281,10 +29351,10 @@
       <c r="X137" s="643" t="s">
         <v>10</v>
       </c>
-      <c r="Y137" s="756" t="s">
+      <c r="Y137" s="703" t="s">
         <v>1864</v>
       </c>
-      <c r="Z137" s="757"/>
+      <c r="Z137" s="704"/>
       <c r="AA137" s="123" t="s">
         <v>359</v>
       </c>
@@ -29376,10 +29446,10 @@
       <c r="X138" s="643" t="s">
         <v>10</v>
       </c>
-      <c r="Y138" s="756" t="s">
+      <c r="Y138" s="703" t="s">
         <v>1865</v>
       </c>
-      <c r="Z138" s="757"/>
+      <c r="Z138" s="704"/>
       <c r="AA138" s="123" t="s">
         <v>357</v>
       </c>
@@ -29471,10 +29541,10 @@
       <c r="X139" s="643" t="s">
         <v>10</v>
       </c>
-      <c r="Y139" s="756" t="s">
+      <c r="Y139" s="703" t="s">
         <v>1866</v>
       </c>
-      <c r="Z139" s="757"/>
+      <c r="Z139" s="704"/>
       <c r="AA139" s="123" t="s">
         <v>828</v>
       </c>
@@ -29569,11 +29639,11 @@
         <v>12</v>
       </c>
       <c r="W140" s="89"/>
-      <c r="X140" s="675" t="s">
+      <c r="X140" s="676" t="s">
         <v>1868</v>
       </c>
-      <c r="Y140" s="675"/>
-      <c r="Z140" s="676"/>
+      <c r="Y140" s="676"/>
+      <c r="Z140" s="677"/>
       <c r="AA140" s="56" t="s">
         <v>829</v>
       </c>
@@ -29669,10 +29739,10 @@
       </c>
       <c r="W141" s="89"/>
       <c r="X141" s="497"/>
-      <c r="Y141" s="675" t="s">
+      <c r="Y141" s="676" t="s">
         <v>1869</v>
       </c>
-      <c r="Z141" s="676"/>
+      <c r="Z141" s="677"/>
       <c r="AA141" s="117" t="s">
         <v>846</v>
       </c>
@@ -29770,10 +29840,10 @@
       </c>
       <c r="W142" s="89"/>
       <c r="X142" s="497"/>
-      <c r="Y142" s="675" t="s">
+      <c r="Y142" s="676" t="s">
         <v>1870</v>
       </c>
-      <c r="Z142" s="676"/>
+      <c r="Z142" s="677"/>
       <c r="AA142" s="497" t="s">
         <v>847</v>
       </c>
@@ -29857,10 +29927,10 @@
       </c>
       <c r="W143" s="89"/>
       <c r="X143" s="497"/>
-      <c r="Y143" s="675" t="s">
+      <c r="Y143" s="676" t="s">
         <v>1871</v>
       </c>
-      <c r="Z143" s="676"/>
+      <c r="Z143" s="677"/>
       <c r="AA143" s="497" t="s">
         <v>848</v>
       </c>
@@ -29944,10 +30014,10 @@
       </c>
       <c r="W144" s="89"/>
       <c r="X144" s="497"/>
-      <c r="Y144" s="675" t="s">
+      <c r="Y144" s="676" t="s">
         <v>1872</v>
       </c>
-      <c r="Z144" s="676"/>
+      <c r="Z144" s="677"/>
       <c r="AA144" s="497" t="s">
         <v>849</v>
       </c>
@@ -30031,10 +30101,10 @@
       </c>
       <c r="W145" s="89"/>
       <c r="X145" s="497"/>
-      <c r="Y145" s="675" t="s">
+      <c r="Y145" s="676" t="s">
         <v>1873</v>
       </c>
-      <c r="Z145" s="676"/>
+      <c r="Z145" s="677"/>
       <c r="AA145" s="497" t="s">
         <v>850</v>
       </c>
@@ -30132,10 +30202,10 @@
       </c>
       <c r="W146" s="89"/>
       <c r="X146" s="497"/>
-      <c r="Y146" s="675" t="s">
+      <c r="Y146" s="676" t="s">
         <v>1874</v>
       </c>
-      <c r="Z146" s="676"/>
+      <c r="Z146" s="677"/>
       <c r="AA146" s="497" t="s">
         <v>852</v>
       </c>
@@ -30219,10 +30289,10 @@
       </c>
       <c r="W147" s="89"/>
       <c r="X147" s="497"/>
-      <c r="Y147" s="675" t="s">
+      <c r="Y147" s="676" t="s">
         <v>1899</v>
       </c>
-      <c r="Z147" s="676"/>
+      <c r="Z147" s="677"/>
       <c r="AA147" s="37" t="s">
         <v>851</v>
       </c>
@@ -30302,12 +30372,12 @@
       <c r="V148" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="W148" s="704" t="s">
+      <c r="W148" s="702" t="s">
         <v>1876</v>
       </c>
-      <c r="X148" s="692"/>
-      <c r="Y148" s="692"/>
-      <c r="Z148" s="703"/>
+      <c r="X148" s="700"/>
+      <c r="Y148" s="700"/>
+      <c r="Z148" s="701"/>
       <c r="AA148" s="56" t="s">
         <v>387</v>
       </c>
@@ -30400,11 +30470,11 @@
       <c r="W149" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="X149" s="692" t="s">
+      <c r="X149" s="700" t="s">
         <v>1878</v>
       </c>
-      <c r="Y149" s="692"/>
-      <c r="Z149" s="703"/>
+      <c r="Y149" s="700"/>
+      <c r="Z149" s="701"/>
       <c r="AA149" s="56" t="s">
         <v>392</v>
       </c>
@@ -30501,11 +30571,11 @@
       <c r="W150" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="X150" s="692" t="s">
+      <c r="X150" s="700" t="s">
         <v>1880</v>
       </c>
-      <c r="Y150" s="692"/>
-      <c r="Z150" s="703"/>
+      <c r="Y150" s="700"/>
+      <c r="Z150" s="701"/>
       <c r="AA150" s="56" t="s">
         <v>396</v>
       </c>
@@ -30593,10 +30663,10 @@
       </c>
       <c r="W151" s="369"/>
       <c r="X151" s="369"/>
-      <c r="Y151" s="675" t="s">
+      <c r="Y151" s="676" t="s">
         <v>1746</v>
       </c>
-      <c r="Z151" s="676"/>
+      <c r="Z151" s="677"/>
       <c r="AA151" s="370" t="s">
         <v>1632</v>
       </c>
@@ -30671,11 +30741,11 @@
       <c r="W152" s="484" t="s">
         <v>10</v>
       </c>
-      <c r="X152" s="695" t="s">
+      <c r="X152" s="692" t="s">
         <v>1881</v>
       </c>
-      <c r="Y152" s="695"/>
-      <c r="Z152" s="697"/>
+      <c r="Y152" s="692"/>
+      <c r="Z152" s="699"/>
       <c r="AA152" s="487" t="s">
         <v>971</v>
       </c>
@@ -30770,11 +30840,11 @@
         <v>12</v>
       </c>
       <c r="W153" s="79"/>
-      <c r="X153" s="692" t="s">
+      <c r="X153" s="700" t="s">
         <v>1883</v>
       </c>
-      <c r="Y153" s="692"/>
-      <c r="Z153" s="703"/>
+      <c r="Y153" s="700"/>
+      <c r="Z153" s="701"/>
       <c r="AA153" s="133" t="s">
         <v>400</v>
       </c>
@@ -30871,11 +30941,11 @@
       <c r="W154" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="X154" s="692" t="s">
+      <c r="X154" s="700" t="s">
         <v>1885</v>
       </c>
-      <c r="Y154" s="692"/>
-      <c r="Z154" s="703"/>
+      <c r="Y154" s="700"/>
+      <c r="Z154" s="701"/>
       <c r="AA154" s="56" t="s">
         <v>406</v>
       </c>
@@ -30973,10 +31043,10 @@
       <c r="X155" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="Y155" s="692" t="s">
+      <c r="Y155" s="700" t="s">
         <v>1887</v>
       </c>
-      <c r="Z155" s="703"/>
+      <c r="Z155" s="701"/>
       <c r="AA155" s="56" t="s">
         <v>411</v>
       </c>
@@ -31078,10 +31148,10 @@
       <c r="X156" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="Y156" s="692" t="s">
+      <c r="Y156" s="700" t="s">
         <v>1888</v>
       </c>
-      <c r="Z156" s="703"/>
+      <c r="Z156" s="701"/>
       <c r="AA156" s="56" t="s">
         <v>416</v>
       </c>
@@ -31176,11 +31246,11 @@
         <v>12</v>
       </c>
       <c r="W157" s="58"/>
-      <c r="X157" s="692" t="s">
+      <c r="X157" s="700" t="s">
         <v>1890</v>
       </c>
-      <c r="Y157" s="692"/>
-      <c r="Z157" s="703"/>
+      <c r="Y157" s="700"/>
+      <c r="Z157" s="701"/>
       <c r="AA157" s="56" t="s">
         <v>421</v>
       </c>
@@ -31276,10 +31346,10 @@
       </c>
       <c r="W158" s="58"/>
       <c r="X158" s="59"/>
-      <c r="Y158" s="692" t="s">
+      <c r="Y158" s="700" t="s">
         <v>1892</v>
       </c>
-      <c r="Z158" s="703"/>
+      <c r="Z158" s="701"/>
       <c r="AA158" s="117" t="s">
         <v>853</v>
       </c>
@@ -31377,10 +31447,10 @@
       </c>
       <c r="W159" s="89"/>
       <c r="X159" s="497"/>
-      <c r="Y159" s="692" t="s">
+      <c r="Y159" s="700" t="s">
         <v>1893</v>
       </c>
-      <c r="Z159" s="703"/>
+      <c r="Z159" s="701"/>
       <c r="AA159" s="85" t="s">
         <v>854</v>
       </c>
@@ -31464,10 +31534,10 @@
       </c>
       <c r="W160" s="89"/>
       <c r="X160" s="497"/>
-      <c r="Y160" s="692" t="s">
+      <c r="Y160" s="700" t="s">
         <v>1894</v>
       </c>
-      <c r="Z160" s="703"/>
+      <c r="Z160" s="701"/>
       <c r="AA160" s="85" t="s">
         <v>855</v>
       </c>
@@ -31551,10 +31621,10 @@
       </c>
       <c r="W161" s="89"/>
       <c r="X161" s="497"/>
-      <c r="Y161" s="692" t="s">
+      <c r="Y161" s="700" t="s">
         <v>1895</v>
       </c>
-      <c r="Z161" s="703"/>
+      <c r="Z161" s="701"/>
       <c r="AA161" s="85" t="s">
         <v>856</v>
       </c>
@@ -31638,10 +31708,10 @@
       </c>
       <c r="W162" s="89"/>
       <c r="X162" s="497"/>
-      <c r="Y162" s="692" t="s">
+      <c r="Y162" s="700" t="s">
         <v>1896</v>
       </c>
-      <c r="Z162" s="703"/>
+      <c r="Z162" s="701"/>
       <c r="AA162" s="117" t="s">
         <v>857</v>
       </c>
@@ -31739,10 +31809,10 @@
       </c>
       <c r="W163" s="89"/>
       <c r="X163" s="497"/>
-      <c r="Y163" s="692" t="s">
+      <c r="Y163" s="700" t="s">
         <v>1897</v>
       </c>
-      <c r="Z163" s="703"/>
+      <c r="Z163" s="701"/>
       <c r="AA163" s="85" t="s">
         <v>436</v>
       </c>
@@ -31826,10 +31896,10 @@
       </c>
       <c r="W164" s="89"/>
       <c r="X164" s="497"/>
-      <c r="Y164" s="692" t="s">
+      <c r="Y164" s="700" t="s">
         <v>1898</v>
       </c>
-      <c r="Z164" s="703"/>
+      <c r="Z164" s="701"/>
       <c r="AA164" s="100" t="s">
         <v>858</v>
       </c>
@@ -31909,12 +31979,12 @@
       <c r="V165" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="W165" s="704" t="s">
+      <c r="W165" s="702" t="s">
         <v>1901</v>
       </c>
-      <c r="X165" s="692"/>
-      <c r="Y165" s="692"/>
-      <c r="Z165" s="703"/>
+      <c r="X165" s="700"/>
+      <c r="Y165" s="700"/>
+      <c r="Z165" s="701"/>
       <c r="AA165" s="56" t="s">
         <v>831</v>
       </c>
@@ -32007,11 +32077,11 @@
       <c r="W166" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="X166" s="692" t="s">
+      <c r="X166" s="700" t="s">
         <v>1903</v>
       </c>
-      <c r="Y166" s="692"/>
-      <c r="Z166" s="703"/>
+      <c r="Y166" s="700"/>
+      <c r="Z166" s="701"/>
       <c r="AA166" s="56" t="s">
         <v>445</v>
       </c>
@@ -32092,9 +32162,9 @@
       <c r="U167" s="168"/>
       <c r="V167" s="39"/>
       <c r="W167" s="40"/>
-      <c r="X167" s="695"/>
-      <c r="Y167" s="695"/>
-      <c r="Z167" s="697"/>
+      <c r="X167" s="692"/>
+      <c r="Y167" s="692"/>
+      <c r="Z167" s="699"/>
       <c r="AA167" s="43"/>
       <c r="AB167" s="587"/>
       <c r="AC167" s="122" t="s">
@@ -32189,11 +32259,11 @@
         <v>12</v>
       </c>
       <c r="W168" s="89"/>
-      <c r="X168" s="692" t="s">
+      <c r="X168" s="700" t="s">
         <v>1906</v>
       </c>
-      <c r="Y168" s="692"/>
-      <c r="Z168" s="703"/>
+      <c r="Y168" s="700"/>
+      <c r="Z168" s="701"/>
       <c r="AA168" s="100" t="s">
         <v>452</v>
       </c>
@@ -32269,10 +32339,10 @@
       </c>
       <c r="W169" s="89"/>
       <c r="X169" s="497"/>
-      <c r="Y169" s="675" t="s">
+      <c r="Y169" s="676" t="s">
         <v>1747</v>
       </c>
-      <c r="Z169" s="676"/>
+      <c r="Z169" s="677"/>
       <c r="AA169" s="37"/>
       <c r="AB169" s="589"/>
       <c r="AC169" s="262"/>
@@ -32933,11 +33003,11 @@
         <v>1606</v>
       </c>
       <c r="W178" s="89"/>
-      <c r="X178" s="675" t="s">
+      <c r="X178" s="676" t="s">
         <v>2590</v>
       </c>
-      <c r="Y178" s="675"/>
-      <c r="Z178" s="676"/>
+      <c r="Y178" s="676"/>
+      <c r="Z178" s="677"/>
       <c r="AA178" s="143" t="s">
         <v>471</v>
       </c>
@@ -33025,10 +33095,10 @@
       </c>
       <c r="W179" s="89"/>
       <c r="X179" s="497"/>
-      <c r="Y179" s="675" t="s">
+      <c r="Y179" s="676" t="s">
         <v>2625</v>
       </c>
-      <c r="Z179" s="676"/>
+      <c r="Z179" s="677"/>
       <c r="AA179" s="143" t="s">
         <v>2600</v>
       </c>
@@ -33106,8 +33176,8 @@
       <c r="V180" s="103"/>
       <c r="W180" s="89"/>
       <c r="X180" s="497"/>
-      <c r="Y180" s="675"/>
-      <c r="Z180" s="676"/>
+      <c r="Y180" s="676"/>
+      <c r="Z180" s="677"/>
       <c r="AA180" s="37"/>
       <c r="AB180" s="589"/>
       <c r="AC180" s="144"/>
@@ -33181,10 +33251,10 @@
       </c>
       <c r="W181" s="89"/>
       <c r="X181" s="497"/>
-      <c r="Y181" s="675" t="s">
+      <c r="Y181" s="676" t="s">
         <v>2627</v>
       </c>
-      <c r="Z181" s="676"/>
+      <c r="Z181" s="677"/>
       <c r="AA181" s="143" t="s">
         <v>2601</v>
       </c>
@@ -33272,10 +33342,10 @@
       </c>
       <c r="W182" s="89"/>
       <c r="X182" s="497"/>
-      <c r="Y182" s="675" t="s">
+      <c r="Y182" s="676" t="s">
         <v>2629</v>
       </c>
-      <c r="Z182" s="676"/>
+      <c r="Z182" s="677"/>
       <c r="AA182" s="143" t="s">
         <v>2602</v>
       </c>
@@ -33349,10 +33419,10 @@
       <c r="V183" s="142"/>
       <c r="W183" s="89"/>
       <c r="X183" s="497"/>
-      <c r="Y183" s="675" t="s">
+      <c r="Y183" s="676" t="s">
         <v>2612</v>
       </c>
-      <c r="Z183" s="676"/>
+      <c r="Z183" s="677"/>
       <c r="AA183" s="143" t="s">
         <v>2610</v>
       </c>
@@ -33420,10 +33490,10 @@
       </c>
       <c r="W184" s="475"/>
       <c r="X184" s="476"/>
-      <c r="Y184" s="675" t="s">
+      <c r="Y184" s="676" t="s">
         <v>2618</v>
       </c>
-      <c r="Z184" s="676"/>
+      <c r="Z184" s="677"/>
       <c r="AA184" s="477"/>
       <c r="AB184" s="610"/>
       <c r="AC184" s="272"/>
@@ -33489,10 +33559,10 @@
       </c>
       <c r="W185" s="192"/>
       <c r="X185" s="467"/>
-      <c r="Y185" s="675" t="s">
+      <c r="Y185" s="676" t="s">
         <v>2619</v>
       </c>
-      <c r="Z185" s="676"/>
+      <c r="Z185" s="677"/>
       <c r="AA185" s="468"/>
       <c r="AB185" s="612"/>
       <c r="AC185" s="474"/>
@@ -33554,10 +33624,10 @@
       <c r="V186" s="142"/>
       <c r="W186" s="89"/>
       <c r="X186" s="497"/>
-      <c r="Y186" s="675" t="s">
+      <c r="Y186" s="676" t="s">
         <v>2620</v>
       </c>
-      <c r="Z186" s="676"/>
+      <c r="Z186" s="677"/>
       <c r="AA186" s="143"/>
       <c r="AB186" s="589"/>
       <c r="AC186" s="272"/>
@@ -33623,10 +33693,10 @@
       </c>
       <c r="W187" s="89"/>
       <c r="X187" s="497"/>
-      <c r="Y187" s="675" t="s">
+      <c r="Y187" s="676" t="s">
         <v>2613</v>
       </c>
-      <c r="Z187" s="676"/>
+      <c r="Z187" s="677"/>
       <c r="AA187" s="143"/>
       <c r="AB187" s="589"/>
       <c r="AC187" s="272"/>
@@ -33688,10 +33758,10 @@
       <c r="V188" s="142"/>
       <c r="W188" s="89"/>
       <c r="X188" s="497"/>
-      <c r="Y188" s="675" t="s">
+      <c r="Y188" s="676" t="s">
         <v>2614</v>
       </c>
-      <c r="Z188" s="676"/>
+      <c r="Z188" s="677"/>
       <c r="AA188" s="143"/>
       <c r="AB188" s="589"/>
       <c r="AC188" s="272"/>
@@ -33753,10 +33823,10 @@
       <c r="V189" s="142"/>
       <c r="W189" s="89"/>
       <c r="X189" s="497"/>
-      <c r="Y189" s="675" t="s">
+      <c r="Y189" s="676" t="s">
         <v>2615</v>
       </c>
-      <c r="Z189" s="676"/>
+      <c r="Z189" s="677"/>
       <c r="AA189" s="143"/>
       <c r="AB189" s="589"/>
       <c r="AC189" s="272"/>
@@ -33818,10 +33888,10 @@
       <c r="V190" s="142"/>
       <c r="W190" s="89"/>
       <c r="X190" s="497"/>
-      <c r="Y190" s="675" t="s">
+      <c r="Y190" s="676" t="s">
         <v>2616</v>
       </c>
-      <c r="Z190" s="676"/>
+      <c r="Z190" s="677"/>
       <c r="AA190" s="143"/>
       <c r="AB190" s="589"/>
       <c r="AC190" s="272"/>
@@ -34849,12 +34919,12 @@
       <c r="V203" s="94" t="s">
         <v>1606</v>
       </c>
-      <c r="W203" s="681" t="s">
+      <c r="W203" s="695" t="s">
         <v>2069</v>
       </c>
-      <c r="X203" s="675"/>
-      <c r="Y203" s="675"/>
-      <c r="Z203" s="676"/>
+      <c r="X203" s="676"/>
+      <c r="Y203" s="676"/>
+      <c r="Z203" s="677"/>
       <c r="AA203" s="100" t="s">
         <v>978</v>
       </c>
@@ -34937,11 +35007,11 @@
         <v>2599</v>
       </c>
       <c r="W204" s="89"/>
-      <c r="X204" s="675" t="s">
+      <c r="X204" s="676" t="s">
         <v>1963</v>
       </c>
-      <c r="Y204" s="675"/>
-      <c r="Z204" s="676"/>
+      <c r="Y204" s="676"/>
+      <c r="Z204" s="677"/>
       <c r="AA204" s="100" t="s">
         <v>511</v>
       </c>
@@ -35006,11 +35076,11 @@
         <v>2599</v>
       </c>
       <c r="W205" s="184"/>
-      <c r="X205" s="677" t="s">
+      <c r="X205" s="685" t="s">
         <v>2070</v>
       </c>
-      <c r="Y205" s="677"/>
-      <c r="Z205" s="678"/>
+      <c r="Y205" s="685"/>
+      <c r="Z205" s="686"/>
       <c r="AA205" s="173" t="s">
         <v>1610</v>
       </c>
@@ -35075,11 +35145,11 @@
         <v>2599</v>
       </c>
       <c r="W206" s="184"/>
-      <c r="X206" s="677" t="s">
+      <c r="X206" s="685" t="s">
         <v>2076</v>
       </c>
-      <c r="Y206" s="677"/>
-      <c r="Z206" s="678"/>
+      <c r="Y206" s="685"/>
+      <c r="Z206" s="686"/>
       <c r="AA206" s="68"/>
       <c r="AB206" s="605"/>
       <c r="AC206" s="99"/>
@@ -35160,11 +35230,11 @@
         <v>12</v>
       </c>
       <c r="W207" s="89"/>
-      <c r="X207" s="675" t="s">
+      <c r="X207" s="676" t="s">
         <v>1910</v>
       </c>
-      <c r="Y207" s="688"/>
-      <c r="Z207" s="689"/>
+      <c r="Y207" s="696"/>
+      <c r="Z207" s="697"/>
       <c r="AA207" s="100" t="s">
         <v>515</v>
       </c>
@@ -35247,11 +35317,11 @@
         <v>12</v>
       </c>
       <c r="W208" s="89"/>
-      <c r="X208" s="675" t="s">
+      <c r="X208" s="676" t="s">
         <v>1912</v>
       </c>
-      <c r="Y208" s="688"/>
-      <c r="Z208" s="689"/>
+      <c r="Y208" s="696"/>
+      <c r="Z208" s="697"/>
       <c r="AA208" s="100" t="s">
         <v>520</v>
       </c>
@@ -35334,11 +35404,11 @@
         <v>12</v>
       </c>
       <c r="W209" s="89"/>
-      <c r="X209" s="675" t="s">
+      <c r="X209" s="676" t="s">
         <v>1914</v>
       </c>
-      <c r="Y209" s="688"/>
-      <c r="Z209" s="689"/>
+      <c r="Y209" s="696"/>
+      <c r="Z209" s="697"/>
       <c r="AA209" s="100" t="s">
         <v>523</v>
       </c>
@@ -35421,11 +35491,11 @@
         <v>12</v>
       </c>
       <c r="W210" s="89"/>
-      <c r="X210" s="675" t="s">
+      <c r="X210" s="676" t="s">
         <v>1916</v>
       </c>
-      <c r="Y210" s="688"/>
-      <c r="Z210" s="689"/>
+      <c r="Y210" s="696"/>
+      <c r="Z210" s="697"/>
       <c r="AA210" s="100" t="s">
         <v>526</v>
       </c>
@@ -35508,11 +35578,11 @@
         <v>12</v>
       </c>
       <c r="W211" s="89"/>
-      <c r="X211" s="675" t="s">
+      <c r="X211" s="676" t="s">
         <v>1918</v>
       </c>
-      <c r="Y211" s="688"/>
-      <c r="Z211" s="689"/>
+      <c r="Y211" s="696"/>
+      <c r="Z211" s="697"/>
       <c r="AA211" s="100" t="s">
         <v>529</v>
       </c>
@@ -35595,11 +35665,11 @@
         <v>12</v>
       </c>
       <c r="W212" s="89"/>
-      <c r="X212" s="675" t="s">
+      <c r="X212" s="676" t="s">
         <v>1920</v>
       </c>
-      <c r="Y212" s="688"/>
-      <c r="Z212" s="689"/>
+      <c r="Y212" s="696"/>
+      <c r="Z212" s="697"/>
       <c r="AA212" s="100" t="s">
         <v>533</v>
       </c>
@@ -35677,12 +35747,12 @@
         <v>11</v>
       </c>
       <c r="V213" s="149"/>
-      <c r="W213" s="742" t="s">
+      <c r="W213" s="698" t="s">
         <v>1922</v>
       </c>
-      <c r="X213" s="695"/>
-      <c r="Y213" s="695"/>
-      <c r="Z213" s="697"/>
+      <c r="X213" s="692"/>
+      <c r="Y213" s="692"/>
+      <c r="Z213" s="699"/>
       <c r="AA213" s="658" t="s">
         <v>1666</v>
       </c>
@@ -35763,11 +35833,11 @@
       </c>
       <c r="V214" s="155"/>
       <c r="W214" s="40"/>
-      <c r="X214" s="695" t="s">
+      <c r="X214" s="692" t="s">
         <v>1924</v>
       </c>
-      <c r="Y214" s="738"/>
-      <c r="Z214" s="696"/>
+      <c r="Y214" s="693"/>
+      <c r="Z214" s="694"/>
       <c r="AA214" s="658" t="s">
         <v>538</v>
       </c>
@@ -35848,11 +35918,11 @@
       </c>
       <c r="V215" s="155"/>
       <c r="W215" s="40"/>
-      <c r="X215" s="695" t="s">
+      <c r="X215" s="692" t="s">
         <v>1926</v>
       </c>
-      <c r="Y215" s="738"/>
-      <c r="Z215" s="696"/>
+      <c r="Y215" s="693"/>
+      <c r="Z215" s="694"/>
       <c r="AA215" s="658" t="s">
         <v>1667</v>
       </c>
@@ -35933,11 +36003,11 @@
       </c>
       <c r="V216" s="155"/>
       <c r="W216" s="40"/>
-      <c r="X216" s="695" t="s">
+      <c r="X216" s="692" t="s">
         <v>1928</v>
       </c>
-      <c r="Y216" s="738"/>
-      <c r="Z216" s="696"/>
+      <c r="Y216" s="693"/>
+      <c r="Z216" s="694"/>
       <c r="AA216" s="658" t="s">
         <v>1668</v>
       </c>
@@ -36018,11 +36088,11 @@
       </c>
       <c r="V217" s="155"/>
       <c r="W217" s="40"/>
-      <c r="X217" s="695" t="s">
+      <c r="X217" s="692" t="s">
         <v>1930</v>
       </c>
-      <c r="Y217" s="738"/>
-      <c r="Z217" s="696"/>
+      <c r="Y217" s="693"/>
+      <c r="Z217" s="694"/>
       <c r="AA217" s="101" t="s">
         <v>1669</v>
       </c>
@@ -36103,11 +36173,11 @@
       </c>
       <c r="V218" s="155"/>
       <c r="W218" s="40"/>
-      <c r="X218" s="695" t="s">
+      <c r="X218" s="692" t="s">
         <v>1932</v>
       </c>
-      <c r="Y218" s="738"/>
-      <c r="Z218" s="696"/>
+      <c r="Y218" s="693"/>
+      <c r="Z218" s="694"/>
       <c r="AA218" s="658" t="s">
         <v>1670</v>
       </c>
@@ -36188,11 +36258,11 @@
       </c>
       <c r="V219" s="155"/>
       <c r="W219" s="40"/>
-      <c r="X219" s="695" t="s">
+      <c r="X219" s="692" t="s">
         <v>1934</v>
       </c>
-      <c r="Y219" s="738"/>
-      <c r="Z219" s="696"/>
+      <c r="Y219" s="693"/>
+      <c r="Z219" s="694"/>
       <c r="AA219" s="658" t="s">
         <v>1671</v>
       </c>
@@ -36273,11 +36343,11 @@
       </c>
       <c r="V220" s="155"/>
       <c r="W220" s="40"/>
-      <c r="X220" s="695" t="s">
+      <c r="X220" s="692" t="s">
         <v>1936</v>
       </c>
-      <c r="Y220" s="738"/>
-      <c r="Z220" s="696"/>
+      <c r="Y220" s="693"/>
+      <c r="Z220" s="694"/>
       <c r="AA220" s="658" t="s">
         <v>1672</v>
       </c>
@@ -36357,12 +36427,12 @@
       <c r="V221" s="248" t="s">
         <v>40</v>
       </c>
-      <c r="W221" s="681" t="s">
+      <c r="W221" s="695" t="s">
         <v>1938</v>
       </c>
-      <c r="X221" s="675"/>
-      <c r="Y221" s="675"/>
-      <c r="Z221" s="676"/>
+      <c r="X221" s="676"/>
+      <c r="Y221" s="676"/>
+      <c r="Z221" s="677"/>
       <c r="AA221" s="56" t="s">
         <v>557</v>
       </c>
@@ -36455,11 +36525,11 @@
       <c r="W222" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="X222" s="675" t="s">
+      <c r="X222" s="676" t="s">
         <v>2071</v>
       </c>
-      <c r="Y222" s="688"/>
-      <c r="Z222" s="689"/>
+      <c r="Y222" s="696"/>
+      <c r="Z222" s="697"/>
       <c r="AA222" s="133" t="s">
         <v>1593</v>
       </c>
@@ -36554,11 +36624,11 @@
         <v>12</v>
       </c>
       <c r="W223" s="233"/>
-      <c r="X223" s="675" t="s">
+      <c r="X223" s="676" t="s">
         <v>1952</v>
       </c>
-      <c r="Y223" s="688"/>
-      <c r="Z223" s="689"/>
+      <c r="Y223" s="696"/>
+      <c r="Z223" s="697"/>
       <c r="AA223" s="162" t="s">
         <v>816</v>
       </c>
@@ -36637,11 +36707,11 @@
         <v>12</v>
       </c>
       <c r="W224" s="316"/>
-      <c r="X224" s="739" t="s">
+      <c r="X224" s="753" t="s">
         <v>1953</v>
       </c>
-      <c r="Y224" s="740"/>
-      <c r="Z224" s="741"/>
+      <c r="Y224" s="754"/>
+      <c r="Z224" s="755"/>
       <c r="AA224" s="317"/>
       <c r="AB224" s="614"/>
       <c r="AC224" s="333"/>
@@ -36722,11 +36792,11 @@
         <v>12</v>
       </c>
       <c r="W225" s="233"/>
-      <c r="X225" s="675" t="s">
+      <c r="X225" s="676" t="s">
         <v>1966</v>
       </c>
-      <c r="Y225" s="688"/>
-      <c r="Z225" s="689"/>
+      <c r="Y225" s="696"/>
+      <c r="Z225" s="697"/>
       <c r="AA225" s="164" t="s">
         <v>1673</v>
       </c>
@@ -36805,11 +36875,11 @@
         <v>12</v>
       </c>
       <c r="W226" s="318"/>
-      <c r="X226" s="754" t="s">
+      <c r="X226" s="707" t="s">
         <v>1956</v>
       </c>
-      <c r="Y226" s="754"/>
-      <c r="Z226" s="755"/>
+      <c r="Y226" s="707"/>
+      <c r="Z226" s="708"/>
       <c r="AA226" s="319"/>
       <c r="AB226" s="614"/>
       <c r="AC226" s="333"/>
@@ -36892,11 +36962,11 @@
       <c r="W227" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="X227" s="675" t="s">
+      <c r="X227" s="676" t="s">
         <v>1955</v>
       </c>
-      <c r="Y227" s="688"/>
-      <c r="Z227" s="689"/>
+      <c r="Y227" s="696"/>
+      <c r="Z227" s="697"/>
       <c r="AA227" s="313" t="s">
         <v>1947</v>
       </c>
@@ -36993,11 +37063,11 @@
       <c r="W228" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="X228" s="675" t="s">
+      <c r="X228" s="676" t="s">
         <v>1958</v>
       </c>
-      <c r="Y228" s="688"/>
-      <c r="Z228" s="689"/>
+      <c r="Y228" s="696"/>
+      <c r="Z228" s="697"/>
       <c r="AA228" s="56" t="s">
         <v>1594</v>
       </c>
@@ -37092,11 +37162,11 @@
         <v>12</v>
       </c>
       <c r="W229" s="89"/>
-      <c r="X229" s="675" t="s">
+      <c r="X229" s="676" t="s">
         <v>1960</v>
       </c>
-      <c r="Y229" s="688"/>
-      <c r="Z229" s="689"/>
+      <c r="Y229" s="696"/>
+      <c r="Z229" s="697"/>
       <c r="AA229" s="100" t="s">
         <v>882</v>
       </c>
@@ -37181,11 +37251,11 @@
       <c r="W230" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="X230" s="675" t="s">
+      <c r="X230" s="676" t="s">
         <v>1962</v>
       </c>
-      <c r="Y230" s="688"/>
-      <c r="Z230" s="689"/>
+      <c r="Y230" s="696"/>
+      <c r="Z230" s="697"/>
       <c r="AA230" s="56" t="s">
         <v>1595</v>
       </c>
@@ -37280,11 +37350,11 @@
         <v>12</v>
       </c>
       <c r="W231" s="89"/>
-      <c r="X231" s="675" t="s">
+      <c r="X231" s="676" t="s">
         <v>1968</v>
       </c>
-      <c r="Y231" s="688"/>
-      <c r="Z231" s="689"/>
+      <c r="Y231" s="696"/>
+      <c r="Z231" s="697"/>
       <c r="AA231" s="100" t="s">
         <v>577</v>
       </c>
@@ -37456,11 +37526,11 @@
         <v>12</v>
       </c>
       <c r="W233" s="89"/>
-      <c r="X233" s="675" t="s">
+      <c r="X233" s="676" t="s">
         <v>1970</v>
       </c>
-      <c r="Y233" s="688"/>
-      <c r="Z233" s="689"/>
+      <c r="Y233" s="696"/>
+      <c r="Z233" s="697"/>
       <c r="AA233" s="100" t="s">
         <v>585</v>
       </c>
@@ -37534,12 +37604,12 @@
       <c r="V234" s="183" t="s">
         <v>40</v>
       </c>
-      <c r="W234" s="684" t="s">
+      <c r="W234" s="761" t="s">
         <v>1964</v>
       </c>
-      <c r="X234" s="677"/>
-      <c r="Y234" s="677"/>
-      <c r="Z234" s="678"/>
+      <c r="X234" s="685"/>
+      <c r="Y234" s="685"/>
+      <c r="Z234" s="686"/>
       <c r="AA234" s="68" t="s">
         <v>1691</v>
       </c>
@@ -37633,12 +37703,12 @@
       <c r="V235" s="248" t="s">
         <v>589</v>
       </c>
-      <c r="W235" s="685" t="s">
+      <c r="W235" s="762" t="s">
         <v>1698</v>
       </c>
-      <c r="X235" s="686"/>
-      <c r="Y235" s="686"/>
-      <c r="Z235" s="687"/>
+      <c r="X235" s="756"/>
+      <c r="Y235" s="756"/>
+      <c r="Z235" s="763"/>
       <c r="AA235" s="56" t="s">
         <v>1693</v>
       </c>
@@ -37733,11 +37803,11 @@
       <c r="W236" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="X236" s="675" t="s">
+      <c r="X236" s="676" t="s">
         <v>1971</v>
       </c>
-      <c r="Y236" s="675"/>
-      <c r="Z236" s="676"/>
+      <c r="Y236" s="676"/>
+      <c r="Z236" s="677"/>
       <c r="AA236" s="56" t="s">
         <v>1694</v>
       </c>
@@ -37826,11 +37896,11 @@
       <c r="W237" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="X237" s="677" t="s">
+      <c r="X237" s="685" t="s">
         <v>2074</v>
       </c>
-      <c r="Y237" s="677"/>
-      <c r="Z237" s="678"/>
+      <c r="Y237" s="685"/>
+      <c r="Z237" s="686"/>
       <c r="AA237" s="68" t="s">
         <v>1695</v>
       </c>
@@ -37929,11 +37999,11 @@
       <c r="W238" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="X238" s="675" t="s">
+      <c r="X238" s="676" t="s">
         <v>1696</v>
       </c>
-      <c r="Y238" s="675"/>
-      <c r="Z238" s="676"/>
+      <c r="Y238" s="676"/>
+      <c r="Z238" s="677"/>
       <c r="AA238" s="56" t="s">
         <v>1596</v>
       </c>
@@ -38105,11 +38175,11 @@
       <c r="W240" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="X240" s="675" t="s">
+      <c r="X240" s="676" t="s">
         <v>1697</v>
       </c>
-      <c r="Y240" s="675"/>
-      <c r="Z240" s="676"/>
+      <c r="Y240" s="676"/>
+      <c r="Z240" s="677"/>
       <c r="AA240" s="56" t="s">
         <v>1647</v>
       </c>
@@ -38186,9 +38256,9 @@
       <c r="U241" s="168"/>
       <c r="V241" s="39"/>
       <c r="W241" s="40"/>
-      <c r="X241" s="695"/>
-      <c r="Y241" s="695"/>
-      <c r="Z241" s="697"/>
+      <c r="X241" s="692"/>
+      <c r="Y241" s="692"/>
+      <c r="Z241" s="699"/>
       <c r="AA241" s="43"/>
       <c r="AB241" s="587"/>
       <c r="AC241" s="122" t="s">
@@ -38281,11 +38351,11 @@
       <c r="W242" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="X242" s="675" t="s">
+      <c r="X242" s="676" t="s">
         <v>2073</v>
       </c>
-      <c r="Y242" s="675"/>
-      <c r="Z242" s="676"/>
+      <c r="Y242" s="676"/>
+      <c r="Z242" s="677"/>
       <c r="AA242" s="56" t="s">
         <v>604</v>
       </c>
@@ -38600,12 +38670,12 @@
       <c r="V246" s="94" t="s">
         <v>589</v>
       </c>
-      <c r="W246" s="672" t="s">
+      <c r="W246" s="764" t="s">
         <v>1973</v>
       </c>
-      <c r="X246" s="673"/>
-      <c r="Y246" s="673"/>
-      <c r="Z246" s="674"/>
+      <c r="X246" s="765"/>
+      <c r="Y246" s="765"/>
+      <c r="Z246" s="766"/>
       <c r="AA246" s="100" t="s">
         <v>616</v>
       </c>
@@ -38688,11 +38758,11 @@
         <v>40</v>
       </c>
       <c r="W247" s="89"/>
-      <c r="X247" s="675" t="s">
+      <c r="X247" s="676" t="s">
         <v>1975</v>
       </c>
-      <c r="Y247" s="675"/>
-      <c r="Z247" s="676"/>
+      <c r="Y247" s="676"/>
+      <c r="Z247" s="677"/>
       <c r="AA247" s="100" t="s">
         <v>976</v>
       </c>
@@ -38775,11 +38845,11 @@
         <v>12</v>
       </c>
       <c r="W248" s="89"/>
-      <c r="X248" s="675" t="s">
+      <c r="X248" s="676" t="s">
         <v>1977</v>
       </c>
-      <c r="Y248" s="675"/>
-      <c r="Z248" s="676"/>
+      <c r="Y248" s="676"/>
+      <c r="Z248" s="677"/>
       <c r="AA248" s="100" t="s">
         <v>621</v>
       </c>
@@ -38862,11 +38932,11 @@
         <v>12</v>
       </c>
       <c r="W249" s="89"/>
-      <c r="X249" s="675" t="s">
+      <c r="X249" s="676" t="s">
         <v>1979</v>
       </c>
-      <c r="Y249" s="675"/>
-      <c r="Z249" s="676"/>
+      <c r="Y249" s="676"/>
+      <c r="Z249" s="677"/>
       <c r="AA249" s="100" t="s">
         <v>975</v>
       </c>
@@ -38949,11 +39019,11 @@
         <v>12</v>
       </c>
       <c r="W250" s="89"/>
-      <c r="X250" s="675" t="s">
+      <c r="X250" s="676" t="s">
         <v>1981</v>
       </c>
-      <c r="Y250" s="675"/>
-      <c r="Z250" s="676"/>
+      <c r="Y250" s="676"/>
+      <c r="Z250" s="677"/>
       <c r="AA250" s="100" t="s">
         <v>629</v>
       </c>
@@ -39035,10 +39105,10 @@
       </c>
       <c r="W251" s="89"/>
       <c r="X251" s="497"/>
-      <c r="Y251" s="675" t="s">
+      <c r="Y251" s="676" t="s">
         <v>1983</v>
       </c>
-      <c r="Z251" s="676"/>
+      <c r="Z251" s="677"/>
       <c r="AA251" s="100" t="s">
         <v>1598</v>
       </c>
@@ -39118,10 +39188,10 @@
       </c>
       <c r="W252" s="89"/>
       <c r="X252" s="497"/>
-      <c r="Y252" s="675" t="s">
+      <c r="Y252" s="676" t="s">
         <v>1985</v>
       </c>
-      <c r="Z252" s="676"/>
+      <c r="Z252" s="677"/>
       <c r="AA252" s="100" t="s">
         <v>634</v>
       </c>
@@ -39201,12 +39271,12 @@
       <c r="V253" s="53" t="s">
         <v>589</v>
       </c>
-      <c r="W253" s="681" t="s">
+      <c r="W253" s="695" t="s">
         <v>1987</v>
       </c>
-      <c r="X253" s="675"/>
-      <c r="Y253" s="675"/>
-      <c r="Z253" s="676"/>
+      <c r="X253" s="676"/>
+      <c r="Y253" s="676"/>
+      <c r="Z253" s="677"/>
       <c r="AA253" s="56" t="s">
         <v>639</v>
       </c>
@@ -39299,11 +39369,11 @@
       <c r="W254" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="X254" s="675" t="s">
+      <c r="X254" s="676" t="s">
         <v>1989</v>
       </c>
-      <c r="Y254" s="675"/>
-      <c r="Z254" s="676"/>
+      <c r="Y254" s="676"/>
+      <c r="Z254" s="677"/>
       <c r="AA254" s="56" t="s">
         <v>894</v>
       </c>
@@ -39637,11 +39707,11 @@
       <c r="W258" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="X258" s="675" t="s">
+      <c r="X258" s="676" t="s">
         <v>1991</v>
       </c>
-      <c r="Y258" s="675"/>
-      <c r="Z258" s="676"/>
+      <c r="Y258" s="676"/>
+      <c r="Z258" s="677"/>
       <c r="AA258" s="56" t="s">
         <v>1992</v>
       </c>
@@ -39736,11 +39806,11 @@
         <v>12</v>
       </c>
       <c r="W259" s="89"/>
-      <c r="X259" s="675" t="s">
+      <c r="X259" s="676" t="s">
         <v>1994</v>
       </c>
-      <c r="Y259" s="675"/>
-      <c r="Z259" s="676"/>
+      <c r="Y259" s="676"/>
+      <c r="Z259" s="677"/>
       <c r="AA259" s="86" t="s">
         <v>859</v>
       </c>
@@ -39826,10 +39896,10 @@
       </c>
       <c r="W260" s="89"/>
       <c r="X260" s="497"/>
-      <c r="Y260" s="675" t="s">
+      <c r="Y260" s="676" t="s">
         <v>1746</v>
       </c>
-      <c r="Z260" s="676"/>
+      <c r="Z260" s="677"/>
       <c r="AA260" s="86" t="s">
         <v>1599</v>
       </c>
@@ -39904,11 +39974,11 @@
         <v>40</v>
       </c>
       <c r="W261" s="172"/>
-      <c r="X261" s="682" t="s">
+      <c r="X261" s="769" t="s">
         <v>2075</v>
       </c>
-      <c r="Y261" s="682"/>
-      <c r="Z261" s="683"/>
+      <c r="Y261" s="769"/>
+      <c r="Z261" s="770"/>
       <c r="AA261" s="173" t="s">
         <v>2635</v>
       </c>
@@ -40007,11 +40077,11 @@
       <c r="W262" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="X262" s="675" t="s">
+      <c r="X262" s="676" t="s">
         <v>1996</v>
       </c>
-      <c r="Y262" s="675"/>
-      <c r="Z262" s="676"/>
+      <c r="Y262" s="676"/>
+      <c r="Z262" s="677"/>
       <c r="AA262" s="56" t="s">
         <v>2580</v>
       </c>
@@ -40106,11 +40176,11 @@
         <v>40</v>
       </c>
       <c r="W263" s="89"/>
-      <c r="X263" s="675" t="s">
+      <c r="X263" s="676" t="s">
         <v>1998</v>
       </c>
-      <c r="Y263" s="675"/>
-      <c r="Z263" s="676"/>
+      <c r="Y263" s="676"/>
+      <c r="Z263" s="677"/>
       <c r="AA263" s="143" t="s">
         <v>2581</v>
       </c>
@@ -40176,16 +40246,16 @@
       <c r="T264" s="639" t="s">
         <v>660</v>
       </c>
-      <c r="U264" s="729" t="s">
+      <c r="U264" s="747" t="s">
         <v>864</v>
       </c>
-      <c r="V264" s="730"/>
-      <c r="W264" s="730"/>
-      <c r="X264" s="730"/>
-      <c r="Y264" s="730"/>
-      <c r="Z264" s="730"/>
-      <c r="AA264" s="730"/>
-      <c r="AB264" s="731"/>
+      <c r="V264" s="748"/>
+      <c r="W264" s="748"/>
+      <c r="X264" s="748"/>
+      <c r="Y264" s="748"/>
+      <c r="Z264" s="748"/>
+      <c r="AA264" s="748"/>
+      <c r="AB264" s="749"/>
       <c r="AC264" s="122" t="s">
         <v>923</v>
       </c>
@@ -40251,16 +40321,16 @@
       <c r="T265" s="639" t="s">
         <v>660</v>
       </c>
-      <c r="U265" s="732" t="s">
+      <c r="U265" s="750" t="s">
         <v>665</v>
       </c>
-      <c r="V265" s="733"/>
-      <c r="W265" s="733"/>
-      <c r="X265" s="733"/>
-      <c r="Y265" s="733"/>
-      <c r="Z265" s="733"/>
-      <c r="AA265" s="733"/>
-      <c r="AB265" s="734"/>
+      <c r="V265" s="751"/>
+      <c r="W265" s="751"/>
+      <c r="X265" s="751"/>
+      <c r="Y265" s="751"/>
+      <c r="Z265" s="751"/>
+      <c r="AA265" s="751"/>
+      <c r="AB265" s="752"/>
       <c r="AC265" s="122" t="s">
         <v>15</v>
       </c>
@@ -40324,16 +40394,16 @@
       <c r="T266" s="639" t="s">
         <v>660</v>
       </c>
-      <c r="U266" s="732" t="s">
+      <c r="U266" s="750" t="s">
         <v>865</v>
       </c>
-      <c r="V266" s="733"/>
-      <c r="W266" s="733"/>
-      <c r="X266" s="733"/>
-      <c r="Y266" s="733"/>
-      <c r="Z266" s="733"/>
-      <c r="AA266" s="733"/>
-      <c r="AB266" s="734"/>
+      <c r="V266" s="751"/>
+      <c r="W266" s="751"/>
+      <c r="X266" s="751"/>
+      <c r="Y266" s="751"/>
+      <c r="Z266" s="751"/>
+      <c r="AA266" s="751"/>
+      <c r="AB266" s="752"/>
       <c r="AC266" s="122" t="s">
         <v>15</v>
       </c>
@@ -40426,11 +40496,11 @@
       <c r="W267" s="398" t="s">
         <v>10</v>
       </c>
-      <c r="X267" s="679" t="s">
+      <c r="X267" s="767" t="s">
         <v>2078</v>
       </c>
-      <c r="Y267" s="679"/>
-      <c r="Z267" s="680"/>
+      <c r="Y267" s="767"/>
+      <c r="Z267" s="768"/>
       <c r="AA267" s="387" t="s">
         <v>2087</v>
       </c>
@@ -40517,11 +40587,11 @@
       <c r="W268" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="X268" s="677" t="s">
+      <c r="X268" s="685" t="s">
         <v>2077</v>
       </c>
-      <c r="Y268" s="677"/>
-      <c r="Z268" s="678"/>
+      <c r="Y268" s="685"/>
+      <c r="Z268" s="686"/>
       <c r="AA268" s="68" t="s">
         <v>1944</v>
       </c>
@@ -40608,11 +40678,11 @@
       <c r="W269" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="X269" s="677" t="s">
+      <c r="X269" s="685" t="s">
         <v>1965</v>
       </c>
-      <c r="Y269" s="677"/>
-      <c r="Z269" s="678"/>
+      <c r="Y269" s="685"/>
+      <c r="Z269" s="686"/>
       <c r="AA269" s="68" t="s">
         <v>1690</v>
       </c>
@@ -40765,16 +40835,16 @@
         <v>1326</v>
       </c>
       <c r="T271" s="9"/>
-      <c r="U271" s="735" t="s">
+      <c r="U271" s="687" t="s">
         <v>1642</v>
       </c>
-      <c r="V271" s="736"/>
-      <c r="W271" s="736"/>
-      <c r="X271" s="736"/>
-      <c r="Y271" s="736"/>
-      <c r="Z271" s="736"/>
-      <c r="AA271" s="736"/>
-      <c r="AB271" s="737"/>
+      <c r="V271" s="688"/>
+      <c r="W271" s="688"/>
+      <c r="X271" s="688"/>
+      <c r="Y271" s="688"/>
+      <c r="Z271" s="688"/>
+      <c r="AA271" s="688"/>
+      <c r="AB271" s="689"/>
       <c r="AC271" s="127" t="s">
         <v>15</v>
       </c>
@@ -40860,16 +40930,16 @@
       <c r="T272" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="U272" s="735" t="s">
+      <c r="U272" s="687" t="s">
         <v>1658</v>
       </c>
-      <c r="V272" s="736"/>
-      <c r="W272" s="736"/>
-      <c r="X272" s="736"/>
-      <c r="Y272" s="736"/>
-      <c r="Z272" s="736"/>
-      <c r="AA272" s="736"/>
-      <c r="AB272" s="737"/>
+      <c r="V272" s="688"/>
+      <c r="W272" s="688"/>
+      <c r="X272" s="688"/>
+      <c r="Y272" s="688"/>
+      <c r="Z272" s="688"/>
+      <c r="AA272" s="688"/>
+      <c r="AB272" s="689"/>
       <c r="AC272" s="127" t="s">
         <v>15</v>
       </c>
@@ -40945,16 +41015,16 @@
       <c r="T273" s="9" t="s">
         <v>962</v>
       </c>
-      <c r="U273" s="735" t="s">
+      <c r="U273" s="687" t="s">
         <v>1659</v>
       </c>
-      <c r="V273" s="736"/>
-      <c r="W273" s="736"/>
-      <c r="X273" s="736"/>
-      <c r="Y273" s="736"/>
-      <c r="Z273" s="736"/>
-      <c r="AA273" s="736"/>
-      <c r="AB273" s="737"/>
+      <c r="V273" s="688"/>
+      <c r="W273" s="688"/>
+      <c r="X273" s="688"/>
+      <c r="Y273" s="688"/>
+      <c r="Z273" s="688"/>
+      <c r="AA273" s="688"/>
+      <c r="AB273" s="689"/>
       <c r="AC273" s="127" t="s">
         <v>15</v>
       </c>
@@ -41029,11 +41099,11 @@
         <v>901</v>
       </c>
       <c r="W274" s="184"/>
-      <c r="X274" s="677" t="s">
+      <c r="X274" s="685" t="s">
         <v>1650</v>
       </c>
-      <c r="Y274" s="677"/>
-      <c r="Z274" s="678"/>
+      <c r="Y274" s="685"/>
+      <c r="Z274" s="686"/>
       <c r="AA274" s="185" t="s">
         <v>1660</v>
       </c>
@@ -41116,11 +41186,11 @@
         <v>12</v>
       </c>
       <c r="W275" s="89"/>
-      <c r="X275" s="675" t="s">
+      <c r="X275" s="676" t="s">
         <v>1649</v>
       </c>
-      <c r="Y275" s="675"/>
-      <c r="Z275" s="676"/>
+      <c r="Y275" s="676"/>
+      <c r="Z275" s="677"/>
       <c r="AA275" s="37" t="s">
         <v>1661</v>
       </c>
@@ -41199,11 +41269,11 @@
         <v>901</v>
       </c>
       <c r="W276" s="184"/>
-      <c r="X276" s="677" t="s">
+      <c r="X276" s="685" t="s">
         <v>1713</v>
       </c>
-      <c r="Y276" s="677"/>
-      <c r="Z276" s="678"/>
+      <c r="Y276" s="685"/>
+      <c r="Z276" s="686"/>
       <c r="AA276" s="185" t="s">
         <v>960</v>
       </c>
@@ -41268,11 +41338,11 @@
         <v>12</v>
       </c>
       <c r="W277" s="196"/>
-      <c r="X277" s="758" t="s">
+      <c r="X277" s="690" t="s">
         <v>2084</v>
       </c>
-      <c r="Y277" s="758"/>
-      <c r="Z277" s="759"/>
+      <c r="Y277" s="690"/>
+      <c r="Z277" s="691"/>
       <c r="AA277" s="173" t="s">
         <v>679</v>
       </c>
@@ -41367,11 +41437,11 @@
         <v>12</v>
       </c>
       <c r="W278" s="89"/>
-      <c r="X278" s="675" t="s">
+      <c r="X278" s="676" t="s">
         <v>2000</v>
       </c>
-      <c r="Y278" s="675"/>
-      <c r="Z278" s="676"/>
+      <c r="Y278" s="676"/>
+      <c r="Z278" s="677"/>
       <c r="AA278" s="37" t="s">
         <v>977</v>
       </c>
@@ -41454,11 +41524,11 @@
         <v>12</v>
       </c>
       <c r="W279" s="89"/>
-      <c r="X279" s="675" t="s">
+      <c r="X279" s="676" t="s">
         <v>2002</v>
       </c>
-      <c r="Y279" s="675"/>
-      <c r="Z279" s="676"/>
+      <c r="Y279" s="676"/>
+      <c r="Z279" s="677"/>
       <c r="AA279" s="56" t="s">
         <v>686</v>
       </c>
@@ -41554,10 +41624,10 @@
       </c>
       <c r="W280" s="89"/>
       <c r="X280" s="497"/>
-      <c r="Y280" s="675" t="s">
+      <c r="Y280" s="676" t="s">
         <v>2004</v>
       </c>
-      <c r="Z280" s="676"/>
+      <c r="Z280" s="677"/>
       <c r="AA280" s="56" t="s">
         <v>690</v>
       </c>
@@ -41655,10 +41725,10 @@
       </c>
       <c r="W281" s="89"/>
       <c r="X281" s="497"/>
-      <c r="Y281" s="675" t="s">
+      <c r="Y281" s="676" t="s">
         <v>2005</v>
       </c>
-      <c r="Z281" s="676"/>
+      <c r="Z281" s="677"/>
       <c r="AA281" s="56" t="s">
         <v>694</v>
       </c>
@@ -41753,11 +41823,11 @@
         <v>12</v>
       </c>
       <c r="W282" s="89"/>
-      <c r="X282" s="675" t="s">
+      <c r="X282" s="676" t="s">
         <v>2007</v>
       </c>
-      <c r="Y282" s="675"/>
-      <c r="Z282" s="676"/>
+      <c r="Y282" s="676"/>
+      <c r="Z282" s="677"/>
       <c r="AA282" s="100" t="s">
         <v>698</v>
       </c>
@@ -41853,10 +41923,10 @@
       </c>
       <c r="W283" s="89"/>
       <c r="X283" s="497"/>
-      <c r="Y283" s="675" t="s">
+      <c r="Y283" s="676" t="s">
         <v>2008</v>
       </c>
-      <c r="Z283" s="676"/>
+      <c r="Z283" s="677"/>
       <c r="AA283" s="100" t="s">
         <v>2598</v>
       </c>
@@ -41936,10 +42006,10 @@
       </c>
       <c r="W284" s="196"/>
       <c r="X284" s="197"/>
-      <c r="Y284" s="758" t="s">
+      <c r="Y284" s="690" t="s">
         <v>2009</v>
       </c>
-      <c r="Z284" s="759"/>
+      <c r="Z284" s="691"/>
       <c r="AA284" s="173"/>
       <c r="AB284" s="605"/>
       <c r="AC284" s="341"/>
@@ -42021,10 +42091,10 @@
       </c>
       <c r="W285" s="89"/>
       <c r="X285" s="497"/>
-      <c r="Y285" s="675" t="s">
+      <c r="Y285" s="676" t="s">
         <v>2011</v>
       </c>
-      <c r="Z285" s="676"/>
+      <c r="Z285" s="677"/>
       <c r="AA285" s="100" t="s">
         <v>2597</v>
       </c>
@@ -42108,10 +42178,10 @@
       </c>
       <c r="W286" s="89"/>
       <c r="X286" s="497"/>
-      <c r="Y286" s="675" t="s">
+      <c r="Y286" s="676" t="s">
         <v>2013</v>
       </c>
-      <c r="Z286" s="676"/>
+      <c r="Z286" s="677"/>
       <c r="AA286" s="100" t="s">
         <v>706</v>
       </c>
@@ -42195,10 +42265,10 @@
       </c>
       <c r="W287" s="89"/>
       <c r="X287" s="497"/>
-      <c r="Y287" s="675" t="s">
+      <c r="Y287" s="676" t="s">
         <v>2015</v>
       </c>
-      <c r="Z287" s="676"/>
+      <c r="Z287" s="677"/>
       <c r="AA287" s="100" t="s">
         <v>709</v>
       </c>
@@ -42296,10 +42366,10 @@
       </c>
       <c r="W288" s="89"/>
       <c r="X288" s="497"/>
-      <c r="Y288" s="675" t="s">
+      <c r="Y288" s="676" t="s">
         <v>2017</v>
       </c>
-      <c r="Z288" s="676"/>
+      <c r="Z288" s="677"/>
       <c r="AA288" s="100" t="s">
         <v>713</v>
       </c>
@@ -42394,11 +42464,11 @@
         <v>12</v>
       </c>
       <c r="W289" s="89"/>
-      <c r="X289" s="675" t="s">
+      <c r="X289" s="676" t="s">
         <v>2019</v>
       </c>
-      <c r="Y289" s="675"/>
-      <c r="Z289" s="676"/>
+      <c r="Y289" s="676"/>
+      <c r="Z289" s="677"/>
       <c r="AA289" s="100" t="s">
         <v>1678</v>
       </c>
@@ -42494,10 +42564,10 @@
       </c>
       <c r="W290" s="89"/>
       <c r="X290" s="497"/>
-      <c r="Y290" s="675" t="s">
+      <c r="Y290" s="676" t="s">
         <v>2020</v>
       </c>
-      <c r="Z290" s="676"/>
+      <c r="Z290" s="677"/>
       <c r="AA290" s="100" t="s">
         <v>2596</v>
       </c>
@@ -42577,10 +42647,10 @@
       </c>
       <c r="W291" s="322"/>
       <c r="X291" s="323"/>
-      <c r="Y291" s="762" t="s">
+      <c r="Y291" s="683" t="s">
         <v>2021</v>
       </c>
-      <c r="Z291" s="763"/>
+      <c r="Z291" s="684"/>
       <c r="AA291" s="173"/>
       <c r="AB291" s="605"/>
       <c r="AC291" s="333"/>
@@ -42662,10 +42732,10 @@
       </c>
       <c r="W292" s="89"/>
       <c r="X292" s="497"/>
-      <c r="Y292" s="675" t="s">
+      <c r="Y292" s="676" t="s">
         <v>2023</v>
       </c>
-      <c r="Z292" s="676"/>
+      <c r="Z292" s="677"/>
       <c r="AA292" s="100" t="s">
         <v>1681</v>
       </c>
@@ -42749,10 +42819,10 @@
       </c>
       <c r="W293" s="89"/>
       <c r="X293" s="497"/>
-      <c r="Y293" s="675" t="s">
+      <c r="Y293" s="676" t="s">
         <v>2025</v>
       </c>
-      <c r="Z293" s="676"/>
+      <c r="Z293" s="677"/>
       <c r="AA293" s="100" t="s">
         <v>1682</v>
       </c>
@@ -42836,10 +42906,10 @@
       </c>
       <c r="W294" s="89"/>
       <c r="X294" s="497"/>
-      <c r="Y294" s="675" t="s">
+      <c r="Y294" s="676" t="s">
         <v>2027</v>
       </c>
-      <c r="Z294" s="676"/>
+      <c r="Z294" s="677"/>
       <c r="AA294" s="100" t="s">
         <v>1684</v>
       </c>
@@ -42937,10 +43007,10 @@
       </c>
       <c r="W295" s="89"/>
       <c r="X295" s="497"/>
-      <c r="Y295" s="675" t="s">
+      <c r="Y295" s="676" t="s">
         <v>2030</v>
       </c>
-      <c r="Z295" s="676"/>
+      <c r="Z295" s="677"/>
       <c r="AA295" s="100" t="s">
         <v>1686</v>
       </c>
@@ -43037,11 +43107,11 @@
       <c r="W296" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="X296" s="675" t="s">
+      <c r="X296" s="676" t="s">
         <v>2032</v>
       </c>
-      <c r="Y296" s="675"/>
-      <c r="Z296" s="676"/>
+      <c r="Y296" s="676"/>
+      <c r="Z296" s="677"/>
       <c r="AA296" s="56" t="s">
         <v>732</v>
       </c>
@@ -43139,10 +43209,10 @@
       <c r="X297" s="499" t="s">
         <v>10</v>
       </c>
-      <c r="Y297" s="675" t="s">
+      <c r="Y297" s="676" t="s">
         <v>2083</v>
       </c>
-      <c r="Z297" s="676"/>
+      <c r="Z297" s="677"/>
       <c r="AA297" s="207" t="s">
         <v>2591</v>
       </c>
@@ -43218,10 +43288,10 @@
       </c>
       <c r="W298" s="210"/>
       <c r="X298" s="211"/>
-      <c r="Y298" s="760" t="s">
+      <c r="Y298" s="681" t="s">
         <v>2082</v>
       </c>
-      <c r="Z298" s="761"/>
+      <c r="Z298" s="682"/>
       <c r="AA298" s="212" t="s">
         <v>1662</v>
       </c>
@@ -43305,10 +43375,10 @@
       </c>
       <c r="W299" s="89"/>
       <c r="X299" s="497"/>
-      <c r="Y299" s="675" t="s">
+      <c r="Y299" s="676" t="s">
         <v>2034</v>
       </c>
-      <c r="Z299" s="676"/>
+      <c r="Z299" s="677"/>
       <c r="AA299" s="100" t="s">
         <v>2592</v>
       </c>
@@ -43392,10 +43462,10 @@
       </c>
       <c r="W300" s="89"/>
       <c r="X300" s="497"/>
-      <c r="Y300" s="675" t="s">
+      <c r="Y300" s="676" t="s">
         <v>2036</v>
       </c>
-      <c r="Z300" s="676"/>
+      <c r="Z300" s="677"/>
       <c r="AA300" s="100" t="s">
         <v>2593</v>
       </c>
@@ -43479,10 +43549,10 @@
       </c>
       <c r="W301" s="399"/>
       <c r="X301" s="499"/>
-      <c r="Y301" s="675" t="s">
+      <c r="Y301" s="676" t="s">
         <v>2038</v>
       </c>
-      <c r="Z301" s="676"/>
+      <c r="Z301" s="677"/>
       <c r="AA301" s="217" t="s">
         <v>2594</v>
       </c>
@@ -43566,10 +43636,10 @@
       </c>
       <c r="W302" s="89"/>
       <c r="X302" s="497"/>
-      <c r="Y302" s="675" t="s">
+      <c r="Y302" s="676" t="s">
         <v>2040</v>
       </c>
-      <c r="Z302" s="676"/>
+      <c r="Z302" s="677"/>
       <c r="AA302" s="100" t="s">
         <v>2595</v>
       </c>
@@ -43656,11 +43726,11 @@
       <c r="W303" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="X303" s="764" t="s">
+      <c r="X303" s="678" t="s">
         <v>2081</v>
       </c>
-      <c r="Y303" s="765"/>
-      <c r="Z303" s="766"/>
+      <c r="Y303" s="679"/>
+      <c r="Z303" s="680"/>
       <c r="AA303" s="56" t="s">
         <v>747</v>
       </c>
@@ -43758,10 +43828,10 @@
       <c r="X304" s="497" t="s">
         <v>10</v>
       </c>
-      <c r="Y304" s="675" t="s">
+      <c r="Y304" s="676" t="s">
         <v>2042</v>
       </c>
-      <c r="Z304" s="676"/>
+      <c r="Z304" s="677"/>
       <c r="AA304" s="56" t="s">
         <v>883</v>
       </c>
@@ -43867,10 +43937,10 @@
       <c r="X305" s="497" t="s">
         <v>10</v>
       </c>
-      <c r="Y305" s="675" t="s">
+      <c r="Y305" s="676" t="s">
         <v>2044</v>
       </c>
-      <c r="Z305" s="676"/>
+      <c r="Z305" s="677"/>
       <c r="AA305" s="56" t="s">
         <v>753</v>
       </c>
@@ -44298,11 +44368,11 @@
       <c r="W311" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="X311" s="675" t="s">
+      <c r="X311" s="676" t="s">
         <v>2046</v>
       </c>
-      <c r="Y311" s="675"/>
-      <c r="Z311" s="676"/>
+      <c r="Y311" s="676"/>
+      <c r="Z311" s="677"/>
       <c r="AA311" s="56" t="s">
         <v>758</v>
       </c>
@@ -44400,10 +44470,10 @@
       <c r="X312" s="497" t="s">
         <v>10</v>
       </c>
-      <c r="Y312" s="675" t="s">
+      <c r="Y312" s="676" t="s">
         <v>2048</v>
       </c>
-      <c r="Z312" s="676"/>
+      <c r="Z312" s="677"/>
       <c r="AA312" s="56" t="s">
         <v>762</v>
       </c>
@@ -44505,10 +44575,10 @@
       <c r="X313" s="497" t="s">
         <v>10</v>
       </c>
-      <c r="Y313" s="675" t="s">
+      <c r="Y313" s="676" t="s">
         <v>2050</v>
       </c>
-      <c r="Z313" s="676"/>
+      <c r="Z313" s="677"/>
       <c r="AA313" s="56" t="s">
         <v>766</v>
       </c>
@@ -44608,10 +44678,10 @@
       </c>
       <c r="W314" s="89"/>
       <c r="X314" s="497"/>
-      <c r="Y314" s="675" t="s">
+      <c r="Y314" s="676" t="s">
         <v>2052</v>
       </c>
-      <c r="Z314" s="676"/>
+      <c r="Z314" s="677"/>
       <c r="AA314" s="100" t="s">
         <v>770</v>
       </c>
@@ -44697,10 +44767,10 @@
       </c>
       <c r="W315" s="89"/>
       <c r="X315" s="497"/>
-      <c r="Y315" s="675" t="s">
+      <c r="Y315" s="676" t="s">
         <v>2054</v>
       </c>
-      <c r="Z315" s="676"/>
+      <c r="Z315" s="677"/>
       <c r="AA315" s="100" t="s">
         <v>774</v>
       </c>
@@ -44790,10 +44860,10 @@
       <c r="X316" s="497" t="s">
         <v>10</v>
       </c>
-      <c r="Y316" s="675" t="s">
+      <c r="Y316" s="676" t="s">
         <v>2056</v>
       </c>
-      <c r="Z316" s="676"/>
+      <c r="Z316" s="677"/>
       <c r="AA316" s="56" t="s">
         <v>779</v>
       </c>
@@ -44982,10 +45052,10 @@
       </c>
       <c r="W318" s="89"/>
       <c r="X318" s="497"/>
-      <c r="Y318" s="675" t="s">
+      <c r="Y318" s="676" t="s">
         <v>2058</v>
       </c>
-      <c r="Z318" s="676"/>
+      <c r="Z318" s="677"/>
       <c r="AA318" s="100" t="s">
         <v>785</v>
       </c>
@@ -45241,10 +45311,10 @@
       </c>
       <c r="W321" s="89"/>
       <c r="X321" s="497"/>
-      <c r="Y321" s="675" t="s">
+      <c r="Y321" s="676" t="s">
         <v>2062</v>
       </c>
-      <c r="Z321" s="676"/>
+      <c r="Z321" s="677"/>
       <c r="AA321" s="100" t="s">
         <v>795</v>
       </c>
@@ -45326,10 +45396,10 @@
       </c>
       <c r="W322" s="89"/>
       <c r="X322" s="497"/>
-      <c r="Y322" s="675" t="s">
+      <c r="Y322" s="676" t="s">
         <v>2064</v>
       </c>
-      <c r="Z322" s="676"/>
+      <c r="Z322" s="677"/>
       <c r="AA322" s="223" t="s">
         <v>799</v>
       </c>
@@ -45568,15 +45638,15 @@
       <c r="O326" s="225"/>
       <c r="P326" s="225"/>
       <c r="Q326" s="225"/>
-      <c r="S326" s="718" t="s">
+      <c r="S326" s="736" t="s">
         <v>983</v>
       </c>
-      <c r="T326" s="719"/>
-      <c r="U326" s="719"/>
-      <c r="V326" s="719"/>
-      <c r="W326" s="719"/>
-      <c r="X326" s="719"/>
-      <c r="Y326" s="720"/>
+      <c r="T326" s="737"/>
+      <c r="U326" s="737"/>
+      <c r="V326" s="737"/>
+      <c r="W326" s="737"/>
+      <c r="X326" s="737"/>
+      <c r="Y326" s="738"/>
       <c r="Z326" s="114" t="s">
         <v>42</v>
       </c>
@@ -45602,15 +45672,15 @@
       <c r="O327" s="225"/>
       <c r="P327" s="225"/>
       <c r="Q327" s="225"/>
-      <c r="S327" s="721" t="s">
+      <c r="S327" s="739" t="s">
         <v>984</v>
       </c>
-      <c r="T327" s="722"/>
-      <c r="U327" s="722"/>
-      <c r="V327" s="722"/>
-      <c r="W327" s="722"/>
-      <c r="X327" s="722"/>
-      <c r="Y327" s="723"/>
+      <c r="T327" s="740"/>
+      <c r="U327" s="740"/>
+      <c r="V327" s="740"/>
+      <c r="W327" s="740"/>
+      <c r="X327" s="740"/>
+      <c r="Y327" s="741"/>
       <c r="Z327" s="237" t="s">
         <v>15</v>
       </c>
@@ -45636,15 +45706,15 @@
       <c r="O328" s="225"/>
       <c r="P328" s="225"/>
       <c r="Q328" s="225"/>
-      <c r="S328" s="708" t="s">
+      <c r="S328" s="726" t="s">
         <v>981</v>
       </c>
-      <c r="T328" s="709"/>
-      <c r="U328" s="709"/>
-      <c r="V328" s="709"/>
-      <c r="W328" s="709"/>
-      <c r="X328" s="709"/>
-      <c r="Y328" s="724"/>
+      <c r="T328" s="727"/>
+      <c r="U328" s="727"/>
+      <c r="V328" s="727"/>
+      <c r="W328" s="727"/>
+      <c r="X328" s="727"/>
+      <c r="Y328" s="742"/>
       <c r="Z328" s="114" t="s">
         <v>55</v>
       </c>
@@ -45670,15 +45740,15 @@
       <c r="O329" s="225"/>
       <c r="P329" s="225"/>
       <c r="Q329" s="225"/>
-      <c r="S329" s="714" t="s">
+      <c r="S329" s="732" t="s">
         <v>982</v>
       </c>
-      <c r="T329" s="715"/>
-      <c r="U329" s="715"/>
-      <c r="V329" s="715"/>
-      <c r="W329" s="715"/>
-      <c r="X329" s="715"/>
-      <c r="Y329" s="725"/>
+      <c r="T329" s="733"/>
+      <c r="U329" s="733"/>
+      <c r="V329" s="733"/>
+      <c r="W329" s="733"/>
+      <c r="X329" s="733"/>
+      <c r="Y329" s="743"/>
       <c r="Z329" s="114" t="s">
         <v>95</v>
       </c>
@@ -45704,15 +45774,15 @@
       <c r="O330" s="225"/>
       <c r="P330" s="225"/>
       <c r="Q330" s="225"/>
-      <c r="S330" s="705" t="s">
+      <c r="S330" s="723" t="s">
         <v>947</v>
       </c>
-      <c r="T330" s="706"/>
-      <c r="U330" s="706"/>
-      <c r="V330" s="706"/>
-      <c r="W330" s="706"/>
-      <c r="X330" s="706"/>
-      <c r="Y330" s="717"/>
+      <c r="T330" s="724"/>
+      <c r="U330" s="724"/>
+      <c r="V330" s="724"/>
+      <c r="W330" s="724"/>
+      <c r="X330" s="724"/>
+      <c r="Y330" s="735"/>
       <c r="Z330" s="237" t="s">
         <v>42</v>
       </c>
@@ -45738,15 +45808,15 @@
       <c r="O331" s="225"/>
       <c r="P331" s="225"/>
       <c r="Q331" s="225"/>
-      <c r="S331" s="705" t="s">
+      <c r="S331" s="723" t="s">
         <v>943</v>
       </c>
-      <c r="T331" s="706"/>
-      <c r="U331" s="706"/>
-      <c r="V331" s="706"/>
-      <c r="W331" s="706"/>
-      <c r="X331" s="706"/>
-      <c r="Y331" s="717"/>
+      <c r="T331" s="724"/>
+      <c r="U331" s="724"/>
+      <c r="V331" s="724"/>
+      <c r="W331" s="724"/>
+      <c r="X331" s="724"/>
+      <c r="Y331" s="735"/>
       <c r="Z331" s="128" t="s">
         <v>79</v>
       </c>
@@ -45772,15 +45842,15 @@
       <c r="O332" s="225"/>
       <c r="P332" s="225"/>
       <c r="Q332" s="225"/>
-      <c r="S332" s="708" t="s">
+      <c r="S332" s="726" t="s">
         <v>821</v>
       </c>
-      <c r="T332" s="709"/>
-      <c r="U332" s="709"/>
-      <c r="V332" s="709"/>
-      <c r="W332" s="709"/>
-      <c r="X332" s="709"/>
-      <c r="Y332" s="710"/>
+      <c r="T332" s="727"/>
+      <c r="U332" s="727"/>
+      <c r="V332" s="727"/>
+      <c r="W332" s="727"/>
+      <c r="X332" s="727"/>
+      <c r="Y332" s="728"/>
       <c r="Z332" s="238" t="s">
         <v>817</v>
       </c>
@@ -45809,13 +45879,13 @@
       <c r="O333" s="225"/>
       <c r="P333" s="225"/>
       <c r="Q333" s="225"/>
-      <c r="S333" s="711"/>
-      <c r="T333" s="712"/>
-      <c r="U333" s="712"/>
-      <c r="V333" s="712"/>
-      <c r="W333" s="712"/>
-      <c r="X333" s="712"/>
-      <c r="Y333" s="713"/>
+      <c r="S333" s="729"/>
+      <c r="T333" s="730"/>
+      <c r="U333" s="730"/>
+      <c r="V333" s="730"/>
+      <c r="W333" s="730"/>
+      <c r="X333" s="730"/>
+      <c r="Y333" s="731"/>
       <c r="Z333" s="241" t="s">
         <v>818</v>
       </c>
@@ -45844,13 +45914,13 @@
       <c r="O334" s="225"/>
       <c r="P334" s="225"/>
       <c r="Q334" s="225"/>
-      <c r="S334" s="711"/>
-      <c r="T334" s="712"/>
-      <c r="U334" s="712"/>
-      <c r="V334" s="712"/>
-      <c r="W334" s="712"/>
-      <c r="X334" s="712"/>
-      <c r="Y334" s="713"/>
+      <c r="S334" s="729"/>
+      <c r="T334" s="730"/>
+      <c r="U334" s="730"/>
+      <c r="V334" s="730"/>
+      <c r="W334" s="730"/>
+      <c r="X334" s="730"/>
+      <c r="Y334" s="731"/>
       <c r="Z334" s="242" t="s">
         <v>819</v>
       </c>
@@ -45879,13 +45949,13 @@
       <c r="O335" s="225"/>
       <c r="P335" s="225"/>
       <c r="Q335" s="225"/>
-      <c r="S335" s="714"/>
-      <c r="T335" s="715"/>
-      <c r="U335" s="715"/>
-      <c r="V335" s="715"/>
-      <c r="W335" s="715"/>
-      <c r="X335" s="715"/>
-      <c r="Y335" s="716"/>
+      <c r="S335" s="732"/>
+      <c r="T335" s="733"/>
+      <c r="U335" s="733"/>
+      <c r="V335" s="733"/>
+      <c r="W335" s="733"/>
+      <c r="X335" s="733"/>
+      <c r="Y335" s="734"/>
       <c r="Z335" s="243" t="s">
         <v>820</v>
       </c>
@@ -45914,15 +45984,15 @@
       <c r="O336" s="225"/>
       <c r="P336" s="225"/>
       <c r="Q336" s="225"/>
-      <c r="S336" s="705" t="s">
+      <c r="S336" s="723" t="s">
         <v>946</v>
       </c>
-      <c r="T336" s="706"/>
-      <c r="U336" s="706"/>
-      <c r="V336" s="706"/>
-      <c r="W336" s="706"/>
-      <c r="X336" s="706"/>
-      <c r="Y336" s="707"/>
+      <c r="T336" s="724"/>
+      <c r="U336" s="724"/>
+      <c r="V336" s="724"/>
+      <c r="W336" s="724"/>
+      <c r="X336" s="724"/>
+      <c r="Y336" s="725"/>
       <c r="Z336" s="6" t="s">
         <v>944</v>
       </c>
@@ -50618,7 +50688,254 @@
     </row>
   </sheetData>
   <autoFilter ref="B1:AO611" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <mergeCells count="270">
+  <mergeCells count="271">
+    <mergeCell ref="W246:Z246"/>
+    <mergeCell ref="X236:Z236"/>
+    <mergeCell ref="X237:Z237"/>
+    <mergeCell ref="X267:Z267"/>
+    <mergeCell ref="Y252:Z252"/>
+    <mergeCell ref="W253:Z253"/>
+    <mergeCell ref="X254:Z254"/>
+    <mergeCell ref="X258:Z258"/>
+    <mergeCell ref="X259:Z259"/>
+    <mergeCell ref="X247:Z247"/>
+    <mergeCell ref="X248:Z248"/>
+    <mergeCell ref="X249:Z249"/>
+    <mergeCell ref="X250:Z250"/>
+    <mergeCell ref="Y251:Z251"/>
+    <mergeCell ref="X261:Z261"/>
+    <mergeCell ref="W234:Z234"/>
+    <mergeCell ref="X238:Z238"/>
+    <mergeCell ref="X242:Z242"/>
+    <mergeCell ref="W235:Z235"/>
+    <mergeCell ref="X227:Z227"/>
+    <mergeCell ref="X228:Z228"/>
+    <mergeCell ref="X229:Z229"/>
+    <mergeCell ref="X230:Z230"/>
+    <mergeCell ref="X231:Z231"/>
+    <mergeCell ref="X233:Z233"/>
+    <mergeCell ref="AI68:AK68"/>
+    <mergeCell ref="AI93:AK93"/>
+    <mergeCell ref="AI134:AK134"/>
+    <mergeCell ref="X40:Z40"/>
+    <mergeCell ref="X70:Z70"/>
+    <mergeCell ref="Y81:Z81"/>
+    <mergeCell ref="Y82:Z82"/>
+    <mergeCell ref="Y105:Z105"/>
+    <mergeCell ref="Y106:Z106"/>
+    <mergeCell ref="W43:Z43"/>
+    <mergeCell ref="W50:Z50"/>
+    <mergeCell ref="X51:Z51"/>
+    <mergeCell ref="X52:Z52"/>
+    <mergeCell ref="W54:Z54"/>
+    <mergeCell ref="X63:Z63"/>
+    <mergeCell ref="X65:Z65"/>
+    <mergeCell ref="W60:Z60"/>
+    <mergeCell ref="X62:Z62"/>
+    <mergeCell ref="X61:Z61"/>
+    <mergeCell ref="Y64:Z64"/>
+    <mergeCell ref="X55:Z55"/>
+    <mergeCell ref="X56:Z56"/>
+    <mergeCell ref="W57:Z57"/>
+    <mergeCell ref="X58:Z58"/>
+    <mergeCell ref="S336:Y336"/>
+    <mergeCell ref="S332:Y335"/>
+    <mergeCell ref="S330:Y330"/>
+    <mergeCell ref="S331:Y331"/>
+    <mergeCell ref="S326:Y326"/>
+    <mergeCell ref="S327:Y327"/>
+    <mergeCell ref="S328:Y328"/>
+    <mergeCell ref="S329:Y329"/>
+    <mergeCell ref="U23:AB23"/>
+    <mergeCell ref="U264:AB264"/>
+    <mergeCell ref="U266:AB266"/>
+    <mergeCell ref="U265:AB265"/>
+    <mergeCell ref="U271:AB271"/>
+    <mergeCell ref="X209:Z209"/>
+    <mergeCell ref="X210:Z210"/>
+    <mergeCell ref="X212:Z212"/>
+    <mergeCell ref="X211:Z211"/>
+    <mergeCell ref="X215:Z215"/>
+    <mergeCell ref="X223:Z223"/>
+    <mergeCell ref="X224:Z224"/>
+    <mergeCell ref="X207:Z207"/>
+    <mergeCell ref="X134:Z134"/>
+    <mergeCell ref="X93:Z93"/>
+    <mergeCell ref="X94:Z94"/>
+    <mergeCell ref="W13:Z13"/>
+    <mergeCell ref="W15:Z15"/>
+    <mergeCell ref="W17:Z17"/>
+    <mergeCell ref="W18:Z18"/>
+    <mergeCell ref="W19:Z19"/>
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="W38:Z38"/>
+    <mergeCell ref="W39:Z39"/>
+    <mergeCell ref="W25:Z25"/>
+    <mergeCell ref="W41:Z41"/>
+    <mergeCell ref="W33:Z33"/>
+    <mergeCell ref="W34:Z34"/>
+    <mergeCell ref="W35:Z35"/>
+    <mergeCell ref="W36:Z36"/>
+    <mergeCell ref="W37:Z37"/>
+    <mergeCell ref="W21:Z21"/>
+    <mergeCell ref="W22:Z22"/>
+    <mergeCell ref="W27:Z27"/>
+    <mergeCell ref="W28:Z28"/>
+    <mergeCell ref="W30:Z30"/>
+    <mergeCell ref="X59:Z59"/>
+    <mergeCell ref="Y66:Z66"/>
+    <mergeCell ref="Y71:Z71"/>
+    <mergeCell ref="Y90:Z90"/>
+    <mergeCell ref="Y92:Z92"/>
+    <mergeCell ref="Y95:Z95"/>
+    <mergeCell ref="X67:Z67"/>
+    <mergeCell ref="X69:Z69"/>
+    <mergeCell ref="X72:Z72"/>
+    <mergeCell ref="Y73:Z73"/>
+    <mergeCell ref="Y74:Z74"/>
+    <mergeCell ref="Y75:Z75"/>
+    <mergeCell ref="Y76:Z76"/>
+    <mergeCell ref="Y77:Z77"/>
+    <mergeCell ref="Y78:Z78"/>
+    <mergeCell ref="Y79:Z79"/>
+    <mergeCell ref="X68:Z68"/>
+    <mergeCell ref="X80:Z80"/>
+    <mergeCell ref="Y83:Z83"/>
+    <mergeCell ref="Y84:Z84"/>
+    <mergeCell ref="Y85:Z85"/>
+    <mergeCell ref="W86:Z86"/>
+    <mergeCell ref="Y113:Z113"/>
+    <mergeCell ref="Y115:Z115"/>
+    <mergeCell ref="Y151:Z151"/>
+    <mergeCell ref="Y260:Z260"/>
+    <mergeCell ref="X114:Z114"/>
+    <mergeCell ref="X116:Z116"/>
+    <mergeCell ref="Y117:Z117"/>
+    <mergeCell ref="Y118:Z118"/>
+    <mergeCell ref="Y119:Z119"/>
+    <mergeCell ref="Y120:Z120"/>
+    <mergeCell ref="W121:Z121"/>
+    <mergeCell ref="X122:Z122"/>
+    <mergeCell ref="X123:Z123"/>
+    <mergeCell ref="X124:Z124"/>
+    <mergeCell ref="X226:Z226"/>
+    <mergeCell ref="X240:Z240"/>
+    <mergeCell ref="X241:Z241"/>
+    <mergeCell ref="Y129:Z129"/>
+    <mergeCell ref="W130:Z130"/>
+    <mergeCell ref="X131:Z131"/>
+    <mergeCell ref="X132:Z132"/>
+    <mergeCell ref="X133:Z133"/>
+    <mergeCell ref="X125:Z125"/>
+    <mergeCell ref="Y126:Z126"/>
+    <mergeCell ref="X96:Z96"/>
+    <mergeCell ref="Y98:Z98"/>
+    <mergeCell ref="Y97:Z97"/>
+    <mergeCell ref="Y99:Z99"/>
+    <mergeCell ref="Y100:Z100"/>
+    <mergeCell ref="X87:Z87"/>
+    <mergeCell ref="X88:Z88"/>
+    <mergeCell ref="X89:Z89"/>
+    <mergeCell ref="X91:Z91"/>
+    <mergeCell ref="Y108:Z108"/>
+    <mergeCell ref="Y109:Z109"/>
+    <mergeCell ref="W110:Z110"/>
+    <mergeCell ref="X111:Z111"/>
+    <mergeCell ref="X112:Z112"/>
+    <mergeCell ref="Y101:Z101"/>
+    <mergeCell ref="Y102:Z102"/>
+    <mergeCell ref="Y103:Z103"/>
+    <mergeCell ref="X104:Z104"/>
+    <mergeCell ref="Y107:Z107"/>
+    <mergeCell ref="Y127:Z127"/>
+    <mergeCell ref="Y128:Z128"/>
+    <mergeCell ref="X140:Z140"/>
+    <mergeCell ref="Y141:Z141"/>
+    <mergeCell ref="Y142:Z142"/>
+    <mergeCell ref="Y143:Z143"/>
+    <mergeCell ref="Y144:Z144"/>
+    <mergeCell ref="X135:Z135"/>
+    <mergeCell ref="Y136:Z136"/>
+    <mergeCell ref="Y137:Z137"/>
+    <mergeCell ref="Y138:Z138"/>
+    <mergeCell ref="Y139:Z139"/>
+    <mergeCell ref="X150:Z150"/>
+    <mergeCell ref="X152:Z152"/>
+    <mergeCell ref="X153:Z153"/>
+    <mergeCell ref="X154:Z154"/>
+    <mergeCell ref="Y155:Z155"/>
+    <mergeCell ref="Y145:Z145"/>
+    <mergeCell ref="Y146:Z146"/>
+    <mergeCell ref="Y147:Z147"/>
+    <mergeCell ref="W148:Z148"/>
+    <mergeCell ref="X149:Z149"/>
+    <mergeCell ref="Y161:Z161"/>
+    <mergeCell ref="Y162:Z162"/>
+    <mergeCell ref="Y163:Z163"/>
+    <mergeCell ref="Y164:Z164"/>
+    <mergeCell ref="W165:Z165"/>
+    <mergeCell ref="Y156:Z156"/>
+    <mergeCell ref="X157:Z157"/>
+    <mergeCell ref="Y158:Z158"/>
+    <mergeCell ref="Y159:Z159"/>
+    <mergeCell ref="Y160:Z160"/>
+    <mergeCell ref="W203:Z203"/>
+    <mergeCell ref="X204:Z204"/>
+    <mergeCell ref="X205:Z205"/>
+    <mergeCell ref="X206:Z206"/>
+    <mergeCell ref="X208:Z208"/>
+    <mergeCell ref="X166:Z166"/>
+    <mergeCell ref="X167:Z167"/>
+    <mergeCell ref="X168:Z168"/>
+    <mergeCell ref="Y169:Z169"/>
+    <mergeCell ref="X178:Z178"/>
+    <mergeCell ref="Y179:Z179"/>
+    <mergeCell ref="Y181:Z181"/>
+    <mergeCell ref="Y182:Z182"/>
+    <mergeCell ref="Y180:Z180"/>
+    <mergeCell ref="Y183:Z183"/>
+    <mergeCell ref="Y185:Z185"/>
+    <mergeCell ref="Y184:Z184"/>
+    <mergeCell ref="Y187:Z187"/>
+    <mergeCell ref="Y188:Z188"/>
+    <mergeCell ref="Y189:Z189"/>
+    <mergeCell ref="Y186:Z186"/>
+    <mergeCell ref="Y190:Z190"/>
+    <mergeCell ref="X219:Z219"/>
+    <mergeCell ref="X220:Z220"/>
+    <mergeCell ref="W221:Z221"/>
+    <mergeCell ref="X222:Z222"/>
+    <mergeCell ref="X225:Z225"/>
+    <mergeCell ref="W213:Z213"/>
+    <mergeCell ref="X214:Z214"/>
+    <mergeCell ref="X216:Z216"/>
+    <mergeCell ref="X217:Z217"/>
+    <mergeCell ref="X218:Z218"/>
+    <mergeCell ref="X262:Z262"/>
+    <mergeCell ref="X263:Z263"/>
+    <mergeCell ref="X278:Z278"/>
+    <mergeCell ref="X279:Z279"/>
+    <mergeCell ref="Y280:Z280"/>
+    <mergeCell ref="X269:Z269"/>
+    <mergeCell ref="X275:Z275"/>
+    <mergeCell ref="X274:Z274"/>
+    <mergeCell ref="X276:Z276"/>
+    <mergeCell ref="U272:AB272"/>
+    <mergeCell ref="U273:AB273"/>
+    <mergeCell ref="X277:Z277"/>
+    <mergeCell ref="X268:Z268"/>
+    <mergeCell ref="Y298:Z298"/>
+    <mergeCell ref="Y290:Z290"/>
+    <mergeCell ref="Y291:Z291"/>
+    <mergeCell ref="Y297:Z297"/>
+    <mergeCell ref="Y281:Z281"/>
+    <mergeCell ref="X282:Z282"/>
+    <mergeCell ref="Y285:Z285"/>
+    <mergeCell ref="Y286:Z286"/>
+    <mergeCell ref="Y287:Z287"/>
+    <mergeCell ref="Y283:Z283"/>
+    <mergeCell ref="Y284:Z284"/>
     <mergeCell ref="W42:Z42"/>
     <mergeCell ref="Y321:Z321"/>
     <mergeCell ref="Y322:Z322"/>
@@ -50643,252 +50960,6 @@
     <mergeCell ref="Y292:Z292"/>
     <mergeCell ref="Y293:Z293"/>
     <mergeCell ref="Y294:Z294"/>
-    <mergeCell ref="Y298:Z298"/>
-    <mergeCell ref="Y290:Z290"/>
-    <mergeCell ref="Y291:Z291"/>
-    <mergeCell ref="Y297:Z297"/>
-    <mergeCell ref="Y281:Z281"/>
-    <mergeCell ref="X282:Z282"/>
-    <mergeCell ref="Y285:Z285"/>
-    <mergeCell ref="Y286:Z286"/>
-    <mergeCell ref="Y287:Z287"/>
-    <mergeCell ref="X262:Z262"/>
-    <mergeCell ref="X263:Z263"/>
-    <mergeCell ref="X278:Z278"/>
-    <mergeCell ref="X279:Z279"/>
-    <mergeCell ref="Y280:Z280"/>
-    <mergeCell ref="X269:Z269"/>
-    <mergeCell ref="X275:Z275"/>
-    <mergeCell ref="X274:Z274"/>
-    <mergeCell ref="X276:Z276"/>
-    <mergeCell ref="U272:AB272"/>
-    <mergeCell ref="U273:AB273"/>
-    <mergeCell ref="X277:Z277"/>
-    <mergeCell ref="Y283:Z283"/>
-    <mergeCell ref="Y284:Z284"/>
-    <mergeCell ref="X268:Z268"/>
-    <mergeCell ref="X219:Z219"/>
-    <mergeCell ref="X220:Z220"/>
-    <mergeCell ref="W221:Z221"/>
-    <mergeCell ref="X222:Z222"/>
-    <mergeCell ref="X225:Z225"/>
-    <mergeCell ref="W213:Z213"/>
-    <mergeCell ref="X214:Z214"/>
-    <mergeCell ref="X216:Z216"/>
-    <mergeCell ref="X217:Z217"/>
-    <mergeCell ref="X218:Z218"/>
-    <mergeCell ref="W203:Z203"/>
-    <mergeCell ref="X204:Z204"/>
-    <mergeCell ref="X205:Z205"/>
-    <mergeCell ref="X206:Z206"/>
-    <mergeCell ref="X208:Z208"/>
-    <mergeCell ref="X166:Z166"/>
-    <mergeCell ref="X167:Z167"/>
-    <mergeCell ref="X168:Z168"/>
-    <mergeCell ref="Y169:Z169"/>
-    <mergeCell ref="X178:Z178"/>
-    <mergeCell ref="Y179:Z179"/>
-    <mergeCell ref="Y181:Z181"/>
-    <mergeCell ref="Y182:Z182"/>
-    <mergeCell ref="Y180:Z180"/>
-    <mergeCell ref="Y183:Z183"/>
-    <mergeCell ref="Y185:Z185"/>
-    <mergeCell ref="Y184:Z184"/>
-    <mergeCell ref="Y187:Z187"/>
-    <mergeCell ref="Y188:Z188"/>
-    <mergeCell ref="Y189:Z189"/>
-    <mergeCell ref="Y186:Z186"/>
-    <mergeCell ref="Y190:Z190"/>
-    <mergeCell ref="Y161:Z161"/>
-    <mergeCell ref="Y162:Z162"/>
-    <mergeCell ref="Y163:Z163"/>
-    <mergeCell ref="Y164:Z164"/>
-    <mergeCell ref="W165:Z165"/>
-    <mergeCell ref="Y156:Z156"/>
-    <mergeCell ref="X157:Z157"/>
-    <mergeCell ref="Y158:Z158"/>
-    <mergeCell ref="Y159:Z159"/>
-    <mergeCell ref="Y160:Z160"/>
-    <mergeCell ref="X150:Z150"/>
-    <mergeCell ref="X152:Z152"/>
-    <mergeCell ref="X153:Z153"/>
-    <mergeCell ref="X154:Z154"/>
-    <mergeCell ref="Y155:Z155"/>
-    <mergeCell ref="Y145:Z145"/>
-    <mergeCell ref="Y146:Z146"/>
-    <mergeCell ref="Y147:Z147"/>
-    <mergeCell ref="W148:Z148"/>
-    <mergeCell ref="X149:Z149"/>
-    <mergeCell ref="Y127:Z127"/>
-    <mergeCell ref="Y128:Z128"/>
-    <mergeCell ref="X140:Z140"/>
-    <mergeCell ref="Y141:Z141"/>
-    <mergeCell ref="Y142:Z142"/>
-    <mergeCell ref="Y143:Z143"/>
-    <mergeCell ref="Y144:Z144"/>
-    <mergeCell ref="X135:Z135"/>
-    <mergeCell ref="Y136:Z136"/>
-    <mergeCell ref="Y137:Z137"/>
-    <mergeCell ref="Y138:Z138"/>
-    <mergeCell ref="Y139:Z139"/>
-    <mergeCell ref="Y108:Z108"/>
-    <mergeCell ref="Y109:Z109"/>
-    <mergeCell ref="W110:Z110"/>
-    <mergeCell ref="X111:Z111"/>
-    <mergeCell ref="X112:Z112"/>
-    <mergeCell ref="Y101:Z101"/>
-    <mergeCell ref="Y102:Z102"/>
-    <mergeCell ref="Y103:Z103"/>
-    <mergeCell ref="X104:Z104"/>
-    <mergeCell ref="Y107:Z107"/>
-    <mergeCell ref="X96:Z96"/>
-    <mergeCell ref="Y98:Z98"/>
-    <mergeCell ref="Y97:Z97"/>
-    <mergeCell ref="Y99:Z99"/>
-    <mergeCell ref="Y100:Z100"/>
-    <mergeCell ref="X87:Z87"/>
-    <mergeCell ref="X88:Z88"/>
-    <mergeCell ref="X89:Z89"/>
-    <mergeCell ref="X91:Z91"/>
-    <mergeCell ref="Y113:Z113"/>
-    <mergeCell ref="Y115:Z115"/>
-    <mergeCell ref="Y151:Z151"/>
-    <mergeCell ref="Y260:Z260"/>
-    <mergeCell ref="X114:Z114"/>
-    <mergeCell ref="X116:Z116"/>
-    <mergeCell ref="Y117:Z117"/>
-    <mergeCell ref="Y118:Z118"/>
-    <mergeCell ref="Y119:Z119"/>
-    <mergeCell ref="Y120:Z120"/>
-    <mergeCell ref="W121:Z121"/>
-    <mergeCell ref="X122:Z122"/>
-    <mergeCell ref="X123:Z123"/>
-    <mergeCell ref="X124:Z124"/>
-    <mergeCell ref="X226:Z226"/>
-    <mergeCell ref="X240:Z240"/>
-    <mergeCell ref="X241:Z241"/>
-    <mergeCell ref="Y129:Z129"/>
-    <mergeCell ref="W130:Z130"/>
-    <mergeCell ref="X131:Z131"/>
-    <mergeCell ref="X132:Z132"/>
-    <mergeCell ref="X133:Z133"/>
-    <mergeCell ref="X125:Z125"/>
-    <mergeCell ref="Y126:Z126"/>
-    <mergeCell ref="X59:Z59"/>
-    <mergeCell ref="Y66:Z66"/>
-    <mergeCell ref="Y71:Z71"/>
-    <mergeCell ref="Y90:Z90"/>
-    <mergeCell ref="Y92:Z92"/>
-    <mergeCell ref="Y95:Z95"/>
-    <mergeCell ref="X67:Z67"/>
-    <mergeCell ref="X69:Z69"/>
-    <mergeCell ref="X72:Z72"/>
-    <mergeCell ref="Y73:Z73"/>
-    <mergeCell ref="Y74:Z74"/>
-    <mergeCell ref="Y75:Z75"/>
-    <mergeCell ref="Y76:Z76"/>
-    <mergeCell ref="Y77:Z77"/>
-    <mergeCell ref="Y78:Z78"/>
-    <mergeCell ref="Y79:Z79"/>
-    <mergeCell ref="X68:Z68"/>
-    <mergeCell ref="X80:Z80"/>
-    <mergeCell ref="Y83:Z83"/>
-    <mergeCell ref="Y84:Z84"/>
-    <mergeCell ref="Y85:Z85"/>
-    <mergeCell ref="W86:Z86"/>
-    <mergeCell ref="W41:Z41"/>
-    <mergeCell ref="W33:Z33"/>
-    <mergeCell ref="W34:Z34"/>
-    <mergeCell ref="W35:Z35"/>
-    <mergeCell ref="W36:Z36"/>
-    <mergeCell ref="W37:Z37"/>
-    <mergeCell ref="W21:Z21"/>
-    <mergeCell ref="W22:Z22"/>
-    <mergeCell ref="W27:Z27"/>
-    <mergeCell ref="W28:Z28"/>
-    <mergeCell ref="W30:Z30"/>
-    <mergeCell ref="W13:Z13"/>
-    <mergeCell ref="W15:Z15"/>
-    <mergeCell ref="W17:Z17"/>
-    <mergeCell ref="W18:Z18"/>
-    <mergeCell ref="W19:Z19"/>
-    <mergeCell ref="AH1:AK1"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="W38:Z38"/>
-    <mergeCell ref="W39:Z39"/>
-    <mergeCell ref="S336:Y336"/>
-    <mergeCell ref="S332:Y335"/>
-    <mergeCell ref="S330:Y330"/>
-    <mergeCell ref="S331:Y331"/>
-    <mergeCell ref="S326:Y326"/>
-    <mergeCell ref="S327:Y327"/>
-    <mergeCell ref="S328:Y328"/>
-    <mergeCell ref="S329:Y329"/>
-    <mergeCell ref="U23:AB23"/>
-    <mergeCell ref="U264:AB264"/>
-    <mergeCell ref="U266:AB266"/>
-    <mergeCell ref="U265:AB265"/>
-    <mergeCell ref="U271:AB271"/>
-    <mergeCell ref="X209:Z209"/>
-    <mergeCell ref="X210:Z210"/>
-    <mergeCell ref="X212:Z212"/>
-    <mergeCell ref="X211:Z211"/>
-    <mergeCell ref="X215:Z215"/>
-    <mergeCell ref="X223:Z223"/>
-    <mergeCell ref="X224:Z224"/>
-    <mergeCell ref="X207:Z207"/>
-    <mergeCell ref="X134:Z134"/>
-    <mergeCell ref="X93:Z93"/>
-    <mergeCell ref="X94:Z94"/>
-    <mergeCell ref="AI68:AK68"/>
-    <mergeCell ref="AI93:AK93"/>
-    <mergeCell ref="AI134:AK134"/>
-    <mergeCell ref="X40:Z40"/>
-    <mergeCell ref="X70:Z70"/>
-    <mergeCell ref="Y81:Z81"/>
-    <mergeCell ref="Y82:Z82"/>
-    <mergeCell ref="Y105:Z105"/>
-    <mergeCell ref="Y106:Z106"/>
-    <mergeCell ref="W43:Z43"/>
-    <mergeCell ref="W50:Z50"/>
-    <mergeCell ref="X51:Z51"/>
-    <mergeCell ref="X52:Z52"/>
-    <mergeCell ref="W54:Z54"/>
-    <mergeCell ref="X63:Z63"/>
-    <mergeCell ref="X65:Z65"/>
-    <mergeCell ref="W60:Z60"/>
-    <mergeCell ref="X62:Z62"/>
-    <mergeCell ref="X61:Z61"/>
-    <mergeCell ref="Y64:Z64"/>
-    <mergeCell ref="X55:Z55"/>
-    <mergeCell ref="X56:Z56"/>
-    <mergeCell ref="W57:Z57"/>
-    <mergeCell ref="X58:Z58"/>
-    <mergeCell ref="W234:Z234"/>
-    <mergeCell ref="X238:Z238"/>
-    <mergeCell ref="X242:Z242"/>
-    <mergeCell ref="W235:Z235"/>
-    <mergeCell ref="X227:Z227"/>
-    <mergeCell ref="X228:Z228"/>
-    <mergeCell ref="X229:Z229"/>
-    <mergeCell ref="X230:Z230"/>
-    <mergeCell ref="X231:Z231"/>
-    <mergeCell ref="X233:Z233"/>
-    <mergeCell ref="W246:Z246"/>
-    <mergeCell ref="X236:Z236"/>
-    <mergeCell ref="X237:Z237"/>
-    <mergeCell ref="X267:Z267"/>
-    <mergeCell ref="Y252:Z252"/>
-    <mergeCell ref="W253:Z253"/>
-    <mergeCell ref="X254:Z254"/>
-    <mergeCell ref="X258:Z258"/>
-    <mergeCell ref="X259:Z259"/>
-    <mergeCell ref="X247:Z247"/>
-    <mergeCell ref="X248:Z248"/>
-    <mergeCell ref="X249:Z249"/>
-    <mergeCell ref="X250:Z250"/>
-    <mergeCell ref="Y251:Z251"/>
-    <mergeCell ref="X261:Z261"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="AG30:AG31 AG86:AG87 AG89:AG91 AG97:AG102 AG104:AG108 AG158:AG163 AG165:AG167 AG213:AG222 AG230 AG299:AG313 AG316 AG320 AG289:AG291 AG227:AG228 AG73 V73 AG110:AG112 V110:V112 AG77:AG78 V77 V80:V84 AG80:AG84 AG63 AG154:AG156 AG141:AG150 V154:V156 V152 V46:V49 AG251:AG260 AG262:AG265 AA325 AL325 AA326:AE330 AG33:AG35 AG37:AG38 E262:E268 AG267:AG268 AG294:AG296 V294:V296 Z326:Z335 AG326:AG331 AG270:AG274 E270:E274 AG65:AG70 V114 AG114 AG152 AG1:AG27 V1:V22 V25:V27 V205:V206 AG284:AG286 AG93 E227:E239 V234:V245 AG234:AG245 E241:E260 AG116:AG139 V116:V139 AG336:AG611 V337:V611 E277:E611 J93:K94 J96:K112 J114:K114 J116:K150 J1:R16 V181:V183 J17:K91 F325:H325 AG170:AG179 V170:V179 AG47:AG61 AG43:AG45 S325:Y325 AG181:AG206 E1:E225 J152:K189 J190:R611 L17:R189 V188:V202 V186 S42 U42 V41 W42">
@@ -52287,12 +52358,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V42">
-    <cfRule type="endsWith" dxfId="1" priority="1" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="7" priority="1" operator="endsWith" text="..n">
       <formula>RIGHT((V42),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V42">
-    <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="6" priority="2" operator="beginsWith" text="1..">
       <formula>LEFT((V42),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -62095,22 +62166,22 @@
   </autoFilter>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="J62:J1048576 J1:J36 J38:J59">
-    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J61">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J60">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
